--- a/week5/datasets/plural nationalities.xlsx
+++ b/week5/datasets/plural nationalities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prajwal/Desktop/Koc/week4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E741EC7-ED99-3E46-ADD1-EE4A4171FB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16492126-F8E2-0242-9067-F22E476C6A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$118</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$241</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1111">
   <si>
     <t>AR</t>
   </si>
@@ -1966,9 +1966,6 @@
   </si>
   <si>
     <t>Saudi Arabian</t>
-  </si>
-  <si>
-    <t>Saudi</t>
   </si>
   <si>
     <t>Bosnian</t>
@@ -5091,10 +5088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H273"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5277,7 +5274,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C7">
         <f>MATCH(A7,Sheet2!A$2:A$241,0)</f>
@@ -5463,7 +5460,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C13">
         <f>MATCH(A13,Sheet2!A$2:A$241,0)</f>
@@ -5494,7 +5491,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C14">
         <f>MATCH(A14,Sheet2!A$2:A$241,0)</f>
@@ -7145,15 +7142,15 @@
         <v>419</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E98" si="13">RIGHT(B67,1)</f>
+        <f t="shared" ref="E67:E97" si="13">RIGHT(B67,1)</f>
         <v>n</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F98" si="14">LEFT(A67)</f>
+        <f t="shared" ref="F67:F97" si="14">LEFT(A67)</f>
         <v>M</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G98" si="15">LEFT(D67)</f>
+        <f t="shared" ref="G67:G97" si="15">LEFT(D67)</f>
         <v>M</v>
       </c>
       <c r="H67">
@@ -7250,7 +7247,7 @@
         <v>N</v>
       </c>
       <c r="H70">
-        <f t="shared" ref="H70:H117" si="16">IF(F70=G70,1,0)</f>
+        <f t="shared" ref="H70:H116" si="16">IF(F70=G70,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7786,7 +7783,7 @@
         <v>163</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C88">
         <f>MATCH(A88,Sheet2!A$2:A$241,0)</f>
@@ -7797,7 +7794,7 @@
       </c>
       <c r="E88" t="str">
         <f t="shared" si="13"/>
-        <v>i</v>
+        <v>n</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="14"/>
@@ -7808,27 +7805,27 @@
         <v>S</v>
       </c>
       <c r="H88">
-        <f t="shared" ref="H88" si="18">IF(F88=G88,1,0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="17">
       <c r="A89" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="C89">
+        <v>166</v>
+      </c>
+      <c r="C89" t="e">
         <f>MATCH(A89,Sheet2!A$2:A$241,0)</f>
-        <v>161</v>
+        <v>#N/A</v>
       </c>
       <c r="D89" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="13"/>
-        <v>n</v>
+        <v>h</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="14"/>
@@ -7836,30 +7833,30 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="15"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="H89">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="17">
       <c r="A90" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C90" t="e">
+        <v>168</v>
+      </c>
+      <c r="C90">
         <f>MATCH(A90,Sheet2!A$2:A$241,0)</f>
-        <v>#N/A</v>
+        <v>160</v>
       </c>
       <c r="D90" t="s">
-        <v>572</v>
+        <v>511</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="13"/>
-        <v>h</v>
+        <v>e</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="14"/>
@@ -7867,30 +7864,30 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="15"/>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="H90">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="17">
       <c r="A91" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C91">
         <f>MATCH(A91,Sheet2!A$2:A$241,0)</f>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D91" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="13"/>
-        <v>e</v>
+        <v>n</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="14"/>
@@ -7898,26 +7895,26 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="15"/>
-        <v>S</v>
+        <v>R</v>
       </c>
       <c r="H91">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="17">
       <c r="A92" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C92">
         <f>MATCH(A92,Sheet2!A$2:A$241,0)</f>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D92" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="13"/>
@@ -7929,30 +7926,30 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="15"/>
-        <v>R</v>
+        <v>S</v>
       </c>
       <c r="H92">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="17">
       <c r="A93" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C93">
         <f>MATCH(A93,Sheet2!A$2:A$241,0)</f>
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D93" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="13"/>
-        <v>n</v>
+        <v>k</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="14"/>
@@ -7969,21 +7966,21 @@
     </row>
     <row r="94" spans="1:8" ht="17">
       <c r="A94" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C94">
         <f>MATCH(A94,Sheet2!A$2:A$241,0)</f>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D94" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="13"/>
-        <v>k</v>
+        <v>n</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="14"/>
@@ -8000,17 +7997,17 @@
     </row>
     <row r="95" spans="1:8" ht="17">
       <c r="A95" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C95">
         <f>MATCH(A95,Sheet2!A$2:A$241,0)</f>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D95" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="13"/>
@@ -8022,30 +8019,30 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="15"/>
-        <v>S</v>
+        <v>Z</v>
       </c>
       <c r="H95">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="17">
       <c r="A96" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C96">
         <f>MATCH(A96,Sheet2!A$2:A$241,0)</f>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D96" t="s">
-        <v>526</v>
+        <v>3</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="13"/>
-        <v>n</v>
+        <v>h</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="14"/>
@@ -8053,7 +8050,7 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="15"/>
-        <v>Z</v>
+        <v>E</v>
       </c>
       <c r="H96">
         <f t="shared" si="16"/>
@@ -8062,21 +8059,21 @@
     </row>
     <row r="97" spans="1:8" ht="17">
       <c r="A97" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C97">
         <f>MATCH(A97,Sheet2!A$2:A$241,0)</f>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D97" t="s">
-        <v>3</v>
+        <v>533</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="13"/>
-        <v>h</v>
+        <v>e</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="14"/>
@@ -8084,37 +8081,37 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="15"/>
-        <v>E</v>
+        <v>S</v>
       </c>
       <c r="H97">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="17">
       <c r="A98" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C98">
         <f>MATCH(A98,Sheet2!A$2:A$241,0)</f>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D98" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="13"/>
-        <v>e</v>
+        <f t="shared" ref="E98:E114" si="18">RIGHT(B98,1)</f>
+        <v>h</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F98:F116" si="19">LEFT(A98)</f>
         <v>S</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="G98:G120" si="20">LEFT(D98)</f>
         <v>S</v>
       </c>
       <c r="H98">
@@ -8124,91 +8121,91 @@
     </row>
     <row r="99" spans="1:8" ht="17">
       <c r="A99" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C99">
         <f>MATCH(A99,Sheet2!A$2:A$241,0)</f>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D99" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" ref="E99:E115" si="19">RIGHT(B99,1)</f>
-        <v>h</v>
+        <f t="shared" si="18"/>
+        <v>s</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" ref="F99:F117" si="20">LEFT(A99)</f>
+        <f t="shared" si="19"/>
         <v>S</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" ref="G99:G121" si="21">LEFT(D99)</f>
-        <v>S</v>
+        <f t="shared" si="20"/>
+        <v>C</v>
       </c>
       <c r="H99">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="17">
       <c r="A100" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C100">
         <f>MATCH(A100,Sheet2!A$2:A$241,0)</f>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D100" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E100" t="str">
+        <f t="shared" si="18"/>
+        <v>n</v>
+      </c>
+      <c r="F100" t="str">
         <f t="shared" si="19"/>
-        <v>s</v>
-      </c>
-      <c r="F100" t="str">
+        <v>S</v>
+      </c>
+      <c r="G100" t="str">
         <f t="shared" si="20"/>
         <v>S</v>
       </c>
-      <c r="G100" t="str">
-        <f t="shared" si="21"/>
-        <v>C</v>
-      </c>
       <c r="H100">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="17">
       <c r="A101" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C101">
         <f>MATCH(A101,Sheet2!A$2:A$241,0)</f>
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D101" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="E101" t="str">
+        <f t="shared" si="18"/>
+        <v>i</v>
+      </c>
+      <c r="F101" t="str">
         <f t="shared" si="19"/>
-        <v>n</v>
-      </c>
-      <c r="F101" t="str">
+        <v>T</v>
+      </c>
+      <c r="G101" t="str">
         <f t="shared" si="20"/>
-        <v>S</v>
-      </c>
-      <c r="G101" t="str">
-        <f t="shared" si="21"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="H101">
         <f t="shared" si="16"/>
@@ -8217,28 +8214,28 @@
     </row>
     <row r="102" spans="1:8" ht="17">
       <c r="A102" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C102">
         <f>MATCH(A102,Sheet2!A$2:A$241,0)</f>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D102" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="E102" t="str">
+        <f t="shared" si="18"/>
+        <v>n</v>
+      </c>
+      <c r="F102" t="str">
         <f t="shared" si="19"/>
-        <v>i</v>
-      </c>
-      <c r="F102" t="str">
+        <v>T</v>
+      </c>
+      <c r="G102" t="str">
         <f t="shared" si="20"/>
-        <v>T</v>
-      </c>
-      <c r="G102" t="str">
-        <f t="shared" si="21"/>
         <v>T</v>
       </c>
       <c r="H102">
@@ -8248,28 +8245,28 @@
     </row>
     <row r="103" spans="1:8" ht="17">
       <c r="A103" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C103">
         <f>MATCH(A103,Sheet2!A$2:A$241,0)</f>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D103" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E103" t="str">
+        <f t="shared" si="18"/>
+        <v>h</v>
+      </c>
+      <c r="F103" t="str">
         <f t="shared" si="19"/>
-        <v>n</v>
-      </c>
-      <c r="F103" t="str">
+        <v>T</v>
+      </c>
+      <c r="G103" t="str">
         <f t="shared" si="20"/>
-        <v>T</v>
-      </c>
-      <c r="G103" t="str">
-        <f t="shared" si="21"/>
         <v>T</v>
       </c>
       <c r="H103">
@@ -8279,28 +8276,28 @@
     </row>
     <row r="104" spans="1:8" ht="17">
       <c r="A104" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C104">
         <f>MATCH(A104,Sheet2!A$2:A$241,0)</f>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D104" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E104" t="str">
+        <f t="shared" si="18"/>
+        <v>n</v>
+      </c>
+      <c r="F104" t="str">
         <f t="shared" si="19"/>
-        <v>h</v>
-      </c>
-      <c r="F104" t="str">
+        <v>T</v>
+      </c>
+      <c r="G104" t="str">
         <f t="shared" si="20"/>
-        <v>T</v>
-      </c>
-      <c r="G104" t="str">
-        <f t="shared" si="21"/>
         <v>T</v>
       </c>
       <c r="H104">
@@ -8310,29 +8307,29 @@
     </row>
     <row r="105" spans="1:8" ht="17">
       <c r="A105" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C105">
         <f>MATCH(A105,Sheet2!A$2:A$241,0)</f>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D105" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="E105" t="str">
+        <f t="shared" si="18"/>
+        <v>n</v>
+      </c>
+      <c r="F105" t="str">
         <f t="shared" si="19"/>
-        <v>n</v>
-      </c>
-      <c r="F105" t="str">
+        <v>U</v>
+      </c>
+      <c r="G105" t="str">
         <f t="shared" si="20"/>
-        <v>T</v>
-      </c>
-      <c r="G105" t="str">
-        <f t="shared" si="21"/>
-        <v>T</v>
+        <v>U</v>
       </c>
       <c r="H105">
         <f t="shared" si="16"/>
@@ -8341,90 +8338,90 @@
     </row>
     <row r="106" spans="1:8" ht="17">
       <c r="A106" s="3" t="s">
-        <v>197</v>
+        <v>570</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C106">
         <f>MATCH(A106,Sheet2!A$2:A$241,0)</f>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D106" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E106" t="str">
+        <f t="shared" si="18"/>
+        <v>i</v>
+      </c>
+      <c r="F106" t="str">
         <f t="shared" si="19"/>
+        <v>U</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="20"/>
+        <v>A</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17">
+      <c r="A107" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107">
+        <f>MATCH(A107,Sheet2!A$2:A$241,0)</f>
+        <v>143</v>
+      </c>
+      <c r="D107" t="s">
+        <v>573</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="18"/>
         <v>n</v>
       </c>
-      <c r="F106" t="str">
+      <c r="F107" t="str">
+        <f t="shared" si="19"/>
+        <v>U</v>
+      </c>
+      <c r="G107" t="str">
         <f t="shared" si="20"/>
         <v>U</v>
       </c>
-      <c r="G106" t="str">
-        <f t="shared" si="21"/>
-        <v>U</v>
-      </c>
-      <c r="H106">
+      <c r="H107">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="17">
-      <c r="A107" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C107">
-        <f>MATCH(A107,Sheet2!A$2:A$241,0)</f>
-        <v>144</v>
-      </c>
-      <c r="D107" t="s">
-        <v>571</v>
-      </c>
-      <c r="E107" t="str">
-        <f t="shared" si="19"/>
-        <v>i</v>
-      </c>
-      <c r="F107" t="str">
-        <f t="shared" si="20"/>
-        <v>U</v>
-      </c>
-      <c r="G107" t="str">
-        <f t="shared" si="21"/>
-        <v>A</v>
-      </c>
-      <c r="H107">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="108" spans="1:8" ht="17">
       <c r="A108" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C108">
         <f>MATCH(A108,Sheet2!A$2:A$241,0)</f>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D108" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E108" t="str">
+        <f t="shared" si="18"/>
+        <v>n</v>
+      </c>
+      <c r="F108" t="str">
         <f t="shared" si="19"/>
-        <v>n</v>
-      </c>
-      <c r="F108" t="str">
+        <v>U</v>
+      </c>
+      <c r="G108" t="str">
         <f t="shared" si="20"/>
-        <v>U</v>
-      </c>
-      <c r="G108" t="str">
-        <f t="shared" si="21"/>
         <v>U</v>
       </c>
       <c r="H108">
@@ -8434,29 +8431,29 @@
     </row>
     <row r="109" spans="1:8" ht="17">
       <c r="A109" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C109">
         <f>MATCH(A109,Sheet2!A$2:A$241,0)</f>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D109" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="E109" t="str">
+        <f t="shared" si="18"/>
+        <v>e</v>
+      </c>
+      <c r="F109" t="str">
         <f t="shared" si="19"/>
-        <v>n</v>
-      </c>
-      <c r="F109" t="str">
+        <v>V</v>
+      </c>
+      <c r="G109" t="str">
         <f t="shared" si="20"/>
-        <v>U</v>
-      </c>
-      <c r="G109" t="str">
-        <f t="shared" si="21"/>
-        <v>U</v>
+        <v>V</v>
       </c>
       <c r="H109">
         <f t="shared" si="16"/>
@@ -8465,90 +8462,90 @@
     </row>
     <row r="110" spans="1:8" ht="17">
       <c r="A110" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C110">
+        <v>206</v>
+      </c>
+      <c r="C110" t="e">
         <f>MATCH(A110,Sheet2!A$2:A$241,0)</f>
-        <v>141</v>
+        <v>#N/A</v>
       </c>
       <c r="D110" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E110" t="str">
+        <f t="shared" si="18"/>
+        <v>h</v>
+      </c>
+      <c r="F110" t="str">
         <f t="shared" si="19"/>
-        <v>e</v>
-      </c>
-      <c r="F110" t="str">
+        <v>W</v>
+      </c>
+      <c r="G110" t="str">
         <f t="shared" si="20"/>
-        <v>V</v>
-      </c>
-      <c r="G110" t="str">
-        <f t="shared" si="21"/>
-        <v>V</v>
+        <v>G</v>
       </c>
       <c r="H110">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="17">
       <c r="A111" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C111" t="e">
+        <v>208</v>
+      </c>
+      <c r="C111">
         <f>MATCH(A111,Sheet2!A$2:A$241,0)</f>
-        <v>#N/A</v>
+        <v>140</v>
       </c>
       <c r="D111" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="E111" t="str">
+        <f t="shared" si="18"/>
+        <v>n</v>
+      </c>
+      <c r="F111" t="str">
         <f t="shared" si="19"/>
-        <v>h</v>
-      </c>
-      <c r="F111" t="str">
+        <v>Z</v>
+      </c>
+      <c r="G111" t="str">
         <f t="shared" si="20"/>
-        <v>W</v>
-      </c>
-      <c r="G111" t="str">
-        <f t="shared" si="21"/>
-        <v>G</v>
+        <v>Z</v>
       </c>
       <c r="H111">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="17">
-      <c r="A112" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>208</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="18" thickBot="1">
+      <c r="A112" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="C112">
         <f>MATCH(A112,Sheet2!A$2:A$241,0)</f>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D112" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E112" t="str">
+        <f t="shared" si="18"/>
+        <v>n</v>
+      </c>
+      <c r="F112" t="str">
         <f t="shared" si="19"/>
-        <v>n</v>
-      </c>
-      <c r="F112" t="str">
+        <v>Z</v>
+      </c>
+      <c r="G112" t="str">
         <f t="shared" si="20"/>
-        <v>Z</v>
-      </c>
-      <c r="G112" t="str">
-        <f t="shared" si="21"/>
         <v>Z</v>
       </c>
       <c r="H112">
@@ -8556,31 +8553,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="18" thickBot="1">
-      <c r="A113" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>210</v>
+    <row r="113" spans="1:8" ht="17">
+      <c r="A113" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>593</v>
       </c>
       <c r="C113">
         <f>MATCH(A113,Sheet2!A$2:A$241,0)</f>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D113" t="s">
-        <v>590</v>
+        <v>469</v>
       </c>
       <c r="E113" t="str">
+        <f t="shared" si="18"/>
+        <v>n</v>
+      </c>
+      <c r="F113" t="str">
         <f t="shared" si="19"/>
-        <v>n</v>
-      </c>
-      <c r="F113" t="str">
+        <v>P</v>
+      </c>
+      <c r="G113" t="str">
         <f t="shared" si="20"/>
-        <v>Z</v>
-      </c>
-      <c r="G113" t="str">
-        <f t="shared" si="21"/>
-        <v>Z</v>
+        <v>P</v>
       </c>
       <c r="H113">
         <f t="shared" si="16"/>
@@ -8589,29 +8586,29 @@
     </row>
     <row r="114" spans="1:8" ht="17">
       <c r="A114" s="3" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C114">
         <f>MATCH(A114,Sheet2!A$2:A$241,0)</f>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D114" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="E114" t="str">
+        <f t="shared" si="18"/>
+        <v>e</v>
+      </c>
+      <c r="F114" t="str">
         <f t="shared" si="19"/>
-        <v>n</v>
-      </c>
-      <c r="F114" t="str">
+        <v>N</v>
+      </c>
+      <c r="G114" t="str">
         <f t="shared" si="20"/>
-        <v>P</v>
-      </c>
-      <c r="G114" t="str">
-        <f t="shared" si="21"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="H114">
         <f t="shared" si="16"/>
@@ -8620,29 +8617,28 @@
     </row>
     <row r="115" spans="1:8" ht="17">
       <c r="A115" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>594</v>
+        <v>175</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="C115">
         <f>MATCH(A115,Sheet2!A$2:A$241,0)</f>
-        <v>137</v>
-      </c>
-      <c r="D115" t="s">
-        <v>446</v>
-      </c>
-      <c r="E115" t="str">
+        <v>156</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="F115" t="str">
         <f t="shared" si="19"/>
-        <v>e</v>
-      </c>
-      <c r="F115" t="str">
+        <v>S</v>
+      </c>
+      <c r="G115" t="str">
         <f t="shared" si="20"/>
-        <v>N</v>
-      </c>
-      <c r="G115" t="str">
-        <f t="shared" si="21"/>
-        <v>N</v>
+        <v>S</v>
       </c>
       <c r="H115">
         <f t="shared" si="16"/>
@@ -8651,28 +8647,25 @@
     </row>
     <row r="116" spans="1:8" ht="17">
       <c r="A116" s="3" t="s">
-        <v>175</v>
+        <v>358</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C116">
         <f>MATCH(A116,Sheet2!A$2:A$241,0)</f>
-        <v>156</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>595</v>
+        <v>136</v>
+      </c>
+      <c r="D116" t="s">
+        <v>359</v>
       </c>
       <c r="F116" t="str">
+        <f t="shared" si="19"/>
+        <v>H</v>
+      </c>
+      <c r="G116" t="str">
         <f t="shared" si="20"/>
-        <v>S</v>
-      </c>
-      <c r="G116" t="str">
-        <f t="shared" si="21"/>
-        <v>S</v>
+        <v>H</v>
       </c>
       <c r="H116">
         <f t="shared" si="16"/>
@@ -8681,56 +8674,48 @@
     </row>
     <row r="117" spans="1:8" ht="17">
       <c r="A117" s="3" t="s">
-        <v>358</v>
+        <v>175</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>597</v>
+        <v>176</v>
       </c>
       <c r="C117">
         <f>MATCH(A117,Sheet2!A$2:A$241,0)</f>
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D117" t="s">
-        <v>359</v>
-      </c>
-      <c r="F117" t="str">
+        <v>1107</v>
+      </c>
+      <c r="G117" t="str">
         <f t="shared" si="20"/>
-        <v>H</v>
-      </c>
-      <c r="G117" t="str">
-        <f t="shared" si="21"/>
-        <v>H</v>
-      </c>
-      <c r="H117">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <v>S</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="17">
       <c r="A118" s="3" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C118">
+        <v>599</v>
+      </c>
+      <c r="C118" t="e">
         <f>MATCH(A118,Sheet2!A$2:A$241,0)</f>
-        <v>156</v>
+        <v>#N/A</v>
       </c>
       <c r="D118" t="s">
         <v>1108</v>
       </c>
       <c r="G118" t="str">
-        <f t="shared" si="21"/>
-        <v>S</v>
+        <f t="shared" si="20"/>
+        <v>G</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="17">
       <c r="A119" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>601</v>
       </c>
       <c r="C119" t="e">
         <f>MATCH(A119,Sheet2!A$2:A$241,0)</f>
@@ -8740,27 +8725,27 @@
         <v>1109</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="21"/>
-        <v>G</v>
+        <f t="shared" si="20"/>
+        <v>V</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="17">
       <c r="A120" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="C120" t="e">
+        <v>527</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C120">
         <f>MATCH(A120,Sheet2!A$2:A$241,0)</f>
-        <v>#N/A</v>
+        <v>135</v>
       </c>
       <c r="D120" t="s">
-        <v>1110</v>
+        <v>528</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" si="21"/>
-        <v>V</v>
+        <f t="shared" si="20"/>
+        <v>K</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="17">
@@ -8768,7 +8753,7 @@
         <v>527</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C121">
         <f>MATCH(A121,Sheet2!A$2:A$241,0)</f>
@@ -8777,1852 +8762,1833 @@
       <c r="D121" t="s">
         <v>528</v>
       </c>
-      <c r="G121" t="str">
-        <f t="shared" si="21"/>
-        <v>K</v>
-      </c>
     </row>
     <row r="122" spans="1:8" ht="17">
       <c r="A122" s="3" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C122">
         <f>MATCH(A122,Sheet2!A$2:A$241,0)</f>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D122" t="s">
-        <v>528</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="17">
       <c r="A123" s="3" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C123">
         <f>MATCH(A123,Sheet2!A$2:A$241,0)</f>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D123" t="s">
-        <v>460</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="17">
       <c r="A124" s="3" t="s">
-        <v>392</v>
+        <v>310</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C124">
         <f>MATCH(A124,Sheet2!A$2:A$241,0)</f>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D124" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="17">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="18" thickBot="1">
       <c r="A125" s="3" t="s">
-        <v>310</v>
+        <v>504</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C125">
         <f>MATCH(A125,Sheet2!A$2:A$241,0)</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D125" t="s">
-        <v>311</v>
+        <v>505</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="18" thickBot="1">
-      <c r="A126" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C126">
-        <f>MATCH(A126,Sheet2!A$2:A$241,0)</f>
-        <v>131</v>
+      <c r="A126" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B126" t="s">
+        <v>623</v>
       </c>
       <c r="D126" t="s">
-        <v>505</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="18" thickBot="1">
       <c r="A127" s="16" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B127" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D127" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="18" thickBot="1">
       <c r="A128" s="16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B128" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D128" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="18" thickBot="1">
       <c r="A129" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B129" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D129" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="18" thickBot="1">
       <c r="A130" s="16" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B130" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D130" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="18" thickBot="1">
       <c r="A131" s="16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B131" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D131" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="18" thickBot="1">
       <c r="A132" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B132" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D132" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="18" thickBot="1">
       <c r="A133" s="16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B133" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D133" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="18" thickBot="1">
       <c r="A134" s="16" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B134" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D134" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="18" thickBot="1">
       <c r="A135" s="16" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="B135" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D135" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="18" thickBot="1">
       <c r="A136" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B136" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D136" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="18" thickBot="1">
       <c r="A137" s="16" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B137" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D137" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="18" thickBot="1">
       <c r="A138" s="16" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B138" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D138" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="18" thickBot="1">
       <c r="A139" s="16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B139" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D139" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="18" thickBot="1">
       <c r="A140" s="16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B140" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D140" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="18" thickBot="1">
       <c r="A141" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B141" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D141" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="18" thickBot="1">
       <c r="A142" s="16" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B142" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D142" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="18" thickBot="1">
       <c r="A143" s="16" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B143" t="s">
-        <v>642</v>
+        <v>1008</v>
       </c>
       <c r="D143" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="18" thickBot="1">
       <c r="A144" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B144" t="s">
-        <v>1009</v>
+        <v>1061</v>
       </c>
       <c r="D144" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="18" thickBot="1">
       <c r="A145" s="16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B145" t="s">
-        <v>1062</v>
+        <v>1007</v>
       </c>
       <c r="D145" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="18" thickBot="1">
       <c r="A146" s="16" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B146" t="s">
-        <v>1008</v>
+        <v>1079</v>
       </c>
       <c r="D146" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="18" thickBot="1">
       <c r="A147" s="16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B147" t="s">
-        <v>1080</v>
+        <v>999</v>
       </c>
       <c r="D147" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="18" thickBot="1">
       <c r="A148" s="16" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B148" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D148" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="18" thickBot="1">
       <c r="A149" s="16" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B149" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="D149" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="18" thickBot="1">
       <c r="A150" s="16" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="B150" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D150" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="18" thickBot="1">
       <c r="A151" s="16" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="B151" t="s">
-        <v>988</v>
+        <v>1080</v>
       </c>
       <c r="D151" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="18" thickBot="1">
       <c r="A152" s="16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B152" t="s">
-        <v>1081</v>
+        <v>1062</v>
       </c>
       <c r="D152" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="18" thickBot="1">
       <c r="A153" s="16" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B153" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D153" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="18" thickBot="1">
       <c r="A154" s="16" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B154" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="D154" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="18" thickBot="1">
       <c r="A155" s="16" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B155" t="s">
-        <v>1082</v>
+        <v>972</v>
       </c>
       <c r="D155" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="18" thickBot="1">
       <c r="A156" s="16" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B156" t="s">
-        <v>973</v>
+        <v>1065</v>
       </c>
       <c r="D156" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="18" thickBot="1">
       <c r="A157" s="16" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B157" t="s">
-        <v>1066</v>
+        <v>968</v>
       </c>
       <c r="D157" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="18" thickBot="1">
       <c r="A158" s="16" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B158" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D158" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="18" thickBot="1">
       <c r="A159" s="16" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B159" t="s">
-        <v>965</v>
+        <v>607</v>
       </c>
       <c r="D159" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="18" thickBot="1">
       <c r="A160" s="16" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B160" t="s">
-        <v>607</v>
+        <v>692</v>
       </c>
       <c r="D160" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="18" thickBot="1">
       <c r="A161" s="16" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B161" t="s">
-        <v>693</v>
+        <v>1067</v>
       </c>
       <c r="D161" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="18" thickBot="1">
       <c r="A162" s="16" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B162" t="s">
-        <v>1068</v>
+        <v>951</v>
       </c>
       <c r="D162" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="18" thickBot="1">
       <c r="A163" s="16" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B163" t="s">
-        <v>952</v>
+        <v>1082</v>
       </c>
       <c r="D163" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="18" thickBot="1">
       <c r="A164" s="16" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B164" t="s">
-        <v>1083</v>
+        <v>939</v>
       </c>
       <c r="D164" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="18" thickBot="1">
       <c r="A165" s="16" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B165" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D165" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="18" thickBot="1">
       <c r="A166" s="16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B166" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="D166" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="18" thickBot="1">
       <c r="A167" s="16" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B167" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D167" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="18" thickBot="1">
       <c r="A168" s="16" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B168" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D168" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="18" thickBot="1">
       <c r="A169" s="16" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B169" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D169" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="18" thickBot="1">
       <c r="A170" s="16" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B170" t="s">
-        <v>926</v>
+        <v>340</v>
       </c>
       <c r="D170" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="18" thickBot="1">
       <c r="A171" s="16" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B171" t="s">
-        <v>340</v>
+        <v>918</v>
       </c>
       <c r="D171" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="18" thickBot="1">
       <c r="A172" s="16" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B172" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D172" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="18" thickBot="1">
       <c r="A173" s="16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B173" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D173" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="18" thickBot="1">
       <c r="A174" s="16" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B174" t="s">
-        <v>913</v>
+        <v>1083</v>
       </c>
       <c r="D174" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="18" thickBot="1">
       <c r="A175" s="16" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B175" t="s">
-        <v>1084</v>
+        <v>909</v>
       </c>
       <c r="D175" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="18" thickBot="1">
       <c r="A176" s="16" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B176" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D176" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="18" thickBot="1">
       <c r="A177" s="16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B177" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D177" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="18" thickBot="1">
       <c r="A178" s="16" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B178" t="s">
-        <v>906</v>
+        <v>1085</v>
       </c>
       <c r="D178" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="18" thickBot="1">
       <c r="A179" s="16" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B179" t="s">
-        <v>1086</v>
+        <v>886</v>
       </c>
       <c r="D179" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="18" thickBot="1">
       <c r="A180" s="16" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B180" t="s">
-        <v>887</v>
+        <v>1083</v>
       </c>
       <c r="D180" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="18" thickBot="1">
       <c r="A181" s="16" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B181" t="s">
-        <v>1084</v>
+        <v>382</v>
       </c>
       <c r="D181" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="18" thickBot="1">
       <c r="A182" s="16" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B182" t="s">
-        <v>382</v>
+        <v>1102</v>
       </c>
       <c r="D182" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="18" thickBot="1">
       <c r="A183" s="16" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B183" t="s">
-        <v>1103</v>
+        <v>865</v>
       </c>
       <c r="D183" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="18" thickBot="1">
       <c r="A184" s="16" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B184" t="s">
-        <v>866</v>
+        <v>1087</v>
       </c>
       <c r="D184" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="18" thickBot="1">
       <c r="A185" s="16" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B185" t="s">
-        <v>1088</v>
+        <v>856</v>
       </c>
       <c r="D185" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="18" thickBot="1">
       <c r="A186" s="16" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B186" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D186" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="18" thickBot="1">
       <c r="A187" s="16" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B187" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D187" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="18" thickBot="1">
       <c r="A188" s="16" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B188" t="s">
-        <v>852</v>
+        <v>1090</v>
       </c>
       <c r="D188" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="18" thickBot="1">
       <c r="A189" s="16" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B189" t="s">
-        <v>1091</v>
+        <v>846</v>
       </c>
       <c r="D189" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="18" thickBot="1">
       <c r="A190" s="16" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B190" t="s">
-        <v>847</v>
+        <v>793</v>
       </c>
       <c r="D190" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="18" thickBot="1">
       <c r="A191" s="16" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B191" t="s">
-        <v>794</v>
+        <v>844</v>
       </c>
       <c r="D191" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="18" thickBot="1">
       <c r="A192" s="16" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B192" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D192" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="18" thickBot="1">
       <c r="A193" s="16" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B193" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="D193" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="18" thickBot="1">
       <c r="A194" s="16" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B194" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D194" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="18" thickBot="1">
       <c r="A195" s="16" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B195" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="D195" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="18" thickBot="1">
       <c r="A196" s="16" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B196" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D196" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="18" thickBot="1">
       <c r="A197" s="16" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B197" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D197" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="18" thickBot="1">
       <c r="A198" s="16" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B198" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D198" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="18" thickBot="1">
       <c r="A199" s="16" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B199" t="s">
-        <v>825</v>
+        <v>1091</v>
       </c>
       <c r="D199" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="18" thickBot="1">
       <c r="A200" s="16" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B200" t="s">
-        <v>1092</v>
+        <v>820</v>
       </c>
       <c r="D200" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="18" thickBot="1">
       <c r="A201" s="16" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B201" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D201" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="18" thickBot="1">
       <c r="A202" s="16" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B202" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D202" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="18" thickBot="1">
       <c r="A203" s="16" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B203" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D203" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="18" thickBot="1">
       <c r="A204" s="16" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B204" t="s">
-        <v>814</v>
+        <v>1068</v>
       </c>
       <c r="D204" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="18" thickBot="1">
       <c r="A205" s="16" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B205" t="s">
-        <v>1069</v>
+        <v>808</v>
       </c>
       <c r="D205" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="18" thickBot="1">
       <c r="A206" s="16" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B206" t="s">
-        <v>809</v>
+        <v>79</v>
       </c>
       <c r="D206" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="18" thickBot="1">
       <c r="A207" s="16" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B207" t="s">
-        <v>79</v>
+        <v>803</v>
       </c>
       <c r="D207" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="18" thickBot="1">
       <c r="A208" s="16" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B208" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D208" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="18" thickBot="1">
       <c r="A209" s="16" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B209" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="D209" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="18" thickBot="1">
       <c r="A210" s="16" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B210" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D210" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="18" thickBot="1">
       <c r="A211" s="16" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B211" t="s">
-        <v>784</v>
+        <v>1104</v>
       </c>
       <c r="D211" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="18" thickBot="1">
       <c r="A212" s="16" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B212" t="s">
-        <v>1105</v>
+        <v>1069</v>
       </c>
       <c r="D212" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="18" thickBot="1">
       <c r="A213" s="16" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B213" t="s">
-        <v>1070</v>
+        <v>770</v>
       </c>
       <c r="D213" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="18" thickBot="1">
       <c r="A214" s="16" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B214" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D214" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="18" thickBot="1">
       <c r="A215" s="16" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B215" t="s">
-        <v>769</v>
+        <v>1071</v>
       </c>
       <c r="D215" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="18" thickBot="1">
       <c r="A216" s="16" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B216" t="s">
-        <v>1072</v>
+        <v>761</v>
       </c>
       <c r="D216" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="18" thickBot="1">
       <c r="A217" s="16" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B217" t="s">
-        <v>762</v>
+        <v>1070</v>
       </c>
       <c r="D217" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="18" thickBot="1">
       <c r="A218" s="16" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B218" t="s">
-        <v>1071</v>
+        <v>754</v>
       </c>
       <c r="D218" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="18" thickBot="1">
       <c r="A219" s="16" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B219" t="s">
-        <v>755</v>
+        <v>1093</v>
       </c>
       <c r="D219" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="18" thickBot="1">
       <c r="A220" s="16" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B220" t="s">
-        <v>1094</v>
+        <v>750</v>
       </c>
       <c r="D220" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="18" thickBot="1">
       <c r="A221" s="16" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B221" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D221" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="18" thickBot="1">
       <c r="A222" s="16" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B222" t="s">
-        <v>749</v>
+        <v>1095</v>
       </c>
       <c r="D222" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="18" thickBot="1">
       <c r="A223" s="16" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B223" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D223" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="18" thickBot="1">
       <c r="A224" s="16" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B224" t="s">
-        <v>1098</v>
+        <v>738</v>
       </c>
       <c r="D224" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="18" thickBot="1">
       <c r="A225" s="16" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B225" t="s">
-        <v>739</v>
+        <v>1073</v>
       </c>
       <c r="D225" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="18" thickBot="1">
       <c r="A226" s="16" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B226" t="s">
-        <v>1074</v>
+        <v>732</v>
       </c>
       <c r="D226" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="18" thickBot="1">
       <c r="A227" s="16" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B227" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D227" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="18" thickBot="1">
       <c r="A228" s="16" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B228" t="s">
-        <v>731</v>
+        <v>622</v>
       </c>
       <c r="D228" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="18" thickBot="1">
       <c r="A229" s="16" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B229" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D229" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="18" thickBot="1">
       <c r="A230" s="16" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B230" t="s">
-        <v>621</v>
+        <v>1084</v>
       </c>
       <c r="D230" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="18" thickBot="1">
       <c r="A231" s="16" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B231" t="s">
-        <v>1085</v>
+        <v>620</v>
       </c>
       <c r="D231" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="18" thickBot="1">
       <c r="A232" s="16" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B232" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D232" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="18" thickBot="1">
       <c r="A233" s="16" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B233" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D233" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="18" thickBot="1">
       <c r="A234" s="16" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B234" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D234" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="18" thickBot="1">
       <c r="A235" s="16" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B235" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D235" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="18" thickBot="1">
       <c r="A236" s="16" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B236" t="s">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="D236" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="18" thickBot="1">
       <c r="A237" s="16" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B237" t="s">
-        <v>697</v>
+        <v>615</v>
       </c>
       <c r="D237" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="18" thickBot="1">
       <c r="A238" s="16" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B238" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D238" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="18" thickBot="1">
       <c r="A239" s="16" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B239" t="s">
-        <v>614</v>
+        <v>691</v>
       </c>
       <c r="D239" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="18" thickBot="1">
       <c r="A240" s="16" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B240" t="s">
-        <v>692</v>
+        <v>613</v>
       </c>
       <c r="D240" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="18" thickBot="1">
       <c r="A241" s="16" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B241" t="s">
-        <v>613</v>
+        <v>1074</v>
       </c>
       <c r="D241" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="18" thickBot="1">
       <c r="A242" s="16" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B242" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D242" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="18" thickBot="1">
       <c r="A243" s="16" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B243" t="s">
-        <v>1077</v>
+        <v>681</v>
       </c>
       <c r="D243" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="18" thickBot="1">
       <c r="A244" s="16" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B244" t="s">
-        <v>682</v>
+        <v>612</v>
       </c>
       <c r="D244" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="18" thickBot="1">
       <c r="A245" s="16" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="B245" t="s">
-        <v>612</v>
+        <v>1106</v>
       </c>
       <c r="D245" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="18" thickBot="1">
       <c r="A246" s="16" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B246" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="D246" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="18" thickBot="1">
       <c r="A247" s="16" t="s">
-        <v>577</v>
+        <v>213</v>
       </c>
       <c r="B247" t="s">
-        <v>1100</v>
+        <v>601</v>
       </c>
       <c r="D247" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="18" thickBot="1">
       <c r="A248" s="16" t="s">
-        <v>213</v>
+        <v>583</v>
       </c>
       <c r="B248" t="s">
-        <v>601</v>
+        <v>1077</v>
       </c>
       <c r="D248" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="18" thickBot="1">
       <c r="A249" s="16" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B249" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D249" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="18" thickBot="1">
       <c r="A250" s="16" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B250" t="s">
-        <v>1101</v>
+        <v>648</v>
       </c>
       <c r="D250" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="18" thickBot="1">
       <c r="A251" s="16" t="s">
-        <v>587</v>
+        <v>502</v>
       </c>
       <c r="B251" t="s">
-        <v>649</v>
-      </c>
-      <c r="D251" t="s">
-        <v>588</v>
+        <v>1098</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="18" thickBot="1">
       <c r="A252" s="16" t="s">
-        <v>502</v>
+        <v>575</v>
       </c>
       <c r="B252" t="s">
-        <v>1099</v>
+        <v>611</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>503</v>
+        <v>576</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="18" thickBot="1">
       <c r="A253" s="16" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="B253" t="s">
-        <v>611</v>
+        <v>1075</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="18" thickBot="1">
       <c r="A254" s="16" t="s">
-        <v>556</v>
+        <v>394</v>
       </c>
       <c r="B254" t="s">
-        <v>1076</v>
+        <v>1089</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>557</v>
+        <v>395</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="18" thickBot="1">
       <c r="A255" s="16" t="s">
-        <v>394</v>
+        <v>521</v>
       </c>
       <c r="B255" t="s">
-        <v>1090</v>
+        <v>1060</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>395</v>
+        <v>522</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="18" thickBot="1">
       <c r="A256" s="16" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="B256" t="s">
-        <v>1061</v>
+        <v>1072</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="18" thickBot="1">
       <c r="A257" s="16" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B257" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="18" thickBot="1">
       <c r="A258" s="16" t="s">
-        <v>471</v>
+        <v>577</v>
       </c>
       <c r="B258" t="s">
-        <v>1106</v>
+        <v>664</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>472</v>
+        <v>578</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="18" thickBot="1">
       <c r="A259" s="16" t="s">
-        <v>577</v>
+        <v>494</v>
       </c>
       <c r="B259" t="s">
-        <v>665</v>
+        <v>1094</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>578</v>
+        <v>495</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="18" thickBot="1">
       <c r="A260" s="16" t="s">
-        <v>494</v>
+        <v>429</v>
       </c>
       <c r="B260" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="18" thickBot="1">
       <c r="A261" s="16" t="s">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="B261" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="18" thickBot="1">
       <c r="A262" s="16" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B262" t="s">
-        <v>1089</v>
+        <v>1103</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="18" thickBot="1">
       <c r="A263" s="16" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="B263" t="s">
-        <v>1104</v>
+        <v>1086</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="18" thickBot="1">
       <c r="A264" s="16" t="s">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="B264" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>362</v>
+        <v>584</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="18" thickBot="1">
       <c r="A265" s="16" t="s">
-        <v>583</v>
+        <v>317</v>
       </c>
       <c r="B265" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>584</v>
+        <v>318</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="18" thickBot="1">
       <c r="A266" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B266" t="s">
-        <v>1067</v>
+        <v>290</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>1063</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="18" thickBot="1">
       <c r="A267" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="B267" s="9" t="s">
-        <v>1064</v>
+        <v>440</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1001</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>291</v>
+        <v>441</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="18" thickBot="1">
       <c r="A268" s="16" t="s">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="B268" t="s">
-        <v>1002</v>
+        <v>640</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>441</v>
+        <v>255</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="18" thickBot="1">
       <c r="A269" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B269" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="18" thickBot="1">
       <c r="A270" s="16" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B270" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="18" thickBot="1">
       <c r="A271" s="16" t="s">
-        <v>232</v>
+        <v>585</v>
       </c>
       <c r="B271" t="s">
-        <v>629</v>
+        <v>1101</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="18" thickBot="1">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="17">
       <c r="A272" s="16" t="s">
-        <v>585</v>
+        <v>500</v>
       </c>
       <c r="B272" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="17">
-      <c r="A273" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D273" s="9" t="s">
         <v>501</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A127" r:id="rId1" display="https://countrycode.org/albania" xr:uid="{821FB568-7965-4B4F-A69A-2AE94667F0FC}"/>
-    <hyperlink ref="A128" r:id="rId2" display="https://countrycode.org/americansamoa" xr:uid="{4A05610C-7D7E-764F-BA1B-4D28C671A9EC}"/>
-    <hyperlink ref="A129" r:id="rId3" display="https://countrycode.org/andorra" xr:uid="{E84AD4A6-DA38-D549-9B63-770C9D288164}"/>
-    <hyperlink ref="A130" r:id="rId4" display="https://countrycode.org/anguilla" xr:uid="{8944C3F7-170D-814E-8C57-E090025A6A51}"/>
-    <hyperlink ref="A131" r:id="rId5" display="https://countrycode.org/antarctica" xr:uid="{C9C08D4A-5F55-6B44-AEA6-ACF9FDC1DCB7}"/>
-    <hyperlink ref="A132" r:id="rId6" display="https://countrycode.org/antiguaandbarbuda" xr:uid="{CAF3DA4A-CEDC-5448-B001-5B59EE9D3088}"/>
-    <hyperlink ref="A133" r:id="rId7" display="https://countrycode.org/armenia" xr:uid="{AA5A6F4F-04CD-3C4D-8228-A34AD709F4AF}"/>
-    <hyperlink ref="A134" r:id="rId8" display="https://countrycode.org/aruba" xr:uid="{C3810B19-C3F6-4648-BA5F-D99EA2E21FA3}"/>
-    <hyperlink ref="A135" r:id="rId9" display="https://countrycode.org/azerbaijan" xr:uid="{39C2A3C5-8739-2049-A721-29B935EDE779}"/>
-    <hyperlink ref="A136" r:id="rId10" display="https://countrycode.org/bahamas" xr:uid="{0D63EC0B-2030-1B48-96AE-B4A0EF2004DD}"/>
-    <hyperlink ref="A137" r:id="rId11" display="https://countrycode.org/bahrain" xr:uid="{6976A9A5-30E4-5848-99CB-38C337152F41}"/>
-    <hyperlink ref="A138" r:id="rId12" display="https://countrycode.org/barbados" xr:uid="{397BB9C6-91D2-2942-AC0D-ACCDF5B64108}"/>
-    <hyperlink ref="A139" r:id="rId13" display="https://countrycode.org/belize" xr:uid="{A3CE13E6-7CCC-2643-9543-FB2B9702A1D9}"/>
-    <hyperlink ref="A140" r:id="rId14" display="https://countrycode.org/benin" xr:uid="{4191652C-CB21-1049-A546-87272911F4DB}"/>
-    <hyperlink ref="A141" r:id="rId15" display="https://countrycode.org/bermuda" xr:uid="{C3B550F1-0379-184E-85A3-67E53546AB43}"/>
-    <hyperlink ref="A142" r:id="rId16" display="https://countrycode.org/bhutan" xr:uid="{32467820-07B1-4A4B-8073-5F7FBA7E4ED3}"/>
-    <hyperlink ref="A143" r:id="rId17" display="https://countrycode.org/botswana" xr:uid="{DCB565FC-D4A3-F641-A3B4-470AE5ED54A4}"/>
-    <hyperlink ref="A144" r:id="rId18" display="https://countrycode.org/britishindianoceanterritory" xr:uid="{EA4CF971-1447-7848-A6C5-059EC2E879DE}"/>
-    <hyperlink ref="A145" r:id="rId19" display="https://countrycode.org/britishvirginislands" xr:uid="{0A2E9D9B-4C4C-7D4B-89A8-256DB2D770F1}"/>
-    <hyperlink ref="A146" r:id="rId20" display="https://countrycode.org/brunei" xr:uid="{85DEB85F-AB9A-9346-81BD-CEE9B9368837}"/>
-    <hyperlink ref="A147" r:id="rId21" display="https://countrycode.org/burkinafaso" xr:uid="{3AEA6F29-AC3E-6A43-8FFE-6B82E90DD259}"/>
-    <hyperlink ref="A148" r:id="rId22" display="https://countrycode.org/burundi" xr:uid="{B754D75C-09DA-C74D-9F9C-43967FDCCB88}"/>
-    <hyperlink ref="A149" r:id="rId23" display="https://countrycode.org/capeverde" xr:uid="{8FE7153A-36EC-AC4A-998D-B0D4B97D1B21}"/>
-    <hyperlink ref="A150" r:id="rId24" display="https://countrycode.org/caymanislands" xr:uid="{7D19FA3A-A019-EB43-93DB-4E79B4CC7EF9}"/>
-    <hyperlink ref="A151" r:id="rId25" display="https://countrycode.org/chile" xr:uid="{78FAD572-C96B-B849-851C-4546D9008247}"/>
-    <hyperlink ref="A152" r:id="rId26" display="https://countrycode.org/christmasisland" xr:uid="{491B8E32-4121-754D-964B-CA472D150D04}"/>
-    <hyperlink ref="A153" r:id="rId27" display="https://countrycode.org/cocoskeelingislands" xr:uid="{D73D67A3-3A13-3A45-B4E7-19EADDEB6E4C}"/>
-    <hyperlink ref="A154" r:id="rId28" display="https://countrycode.org/comoros" xr:uid="{6527690C-19D4-E245-8967-721A3226F019}"/>
-    <hyperlink ref="A155" r:id="rId29" display="https://countrycode.org/cookislands" xr:uid="{F4078258-0B1D-4645-ADB3-4946CAF0F3EF}"/>
-    <hyperlink ref="A156" r:id="rId30" display="https://countrycode.org/cuba" xr:uid="{077191C0-2190-DE40-9A67-C7E2E5B31777}"/>
-    <hyperlink ref="A157" r:id="rId31" display="https://countrycode.org/curacao" xr:uid="{98593ABE-4929-6944-ABA6-93DD36F4F304}"/>
-    <hyperlink ref="A158" r:id="rId32" display="https://countrycode.org/cyprus" xr:uid="{F6FE53C5-2ABC-CC4D-BA6E-DB3B9B9234EE}"/>
-    <hyperlink ref="A159" r:id="rId33" display="https://countrycode.org/djibouti" xr:uid="{ACD06594-99A9-3248-B38B-797F568140E2}"/>
-    <hyperlink ref="A160" r:id="rId34" display="https://countrycode.org/dominica" xr:uid="{9EE14BD4-886A-084F-BF5A-6FBE9BF44BE5}"/>
-    <hyperlink ref="A161" r:id="rId35" display="https://countrycode.org/easttimor" xr:uid="{A73367FD-83A4-AD46-AE9F-392A6A6E8E06}"/>
-    <hyperlink ref="A162" r:id="rId36" display="https://countrycode.org/equatorialguinea" xr:uid="{D0577054-FF5D-2B49-AB18-908E1EDB10C9}"/>
-    <hyperlink ref="A163" r:id="rId37" display="https://countrycode.org/eritrea" xr:uid="{DC2CF6CA-3C55-2D46-BDCD-1B9AEAA4D2AD}"/>
-    <hyperlink ref="A164" r:id="rId38" display="https://countrycode.org/falklands" xr:uid="{2AD9085B-8975-7F49-8382-3E35F2F56C19}"/>
-    <hyperlink ref="A165" r:id="rId39" display="https://countrycode.org/faroeislands" xr:uid="{ED75B6ED-6A6B-D24A-B5DE-0DC8982E7952}"/>
-    <hyperlink ref="A166" r:id="rId40" display="https://countrycode.org/fiji" xr:uid="{5C08B35C-F467-A549-948C-00D3F11D8AE0}"/>
-    <hyperlink ref="A167" r:id="rId41" display="https://countrycode.org/frenchpolynesia" xr:uid="{A29A0232-DF9C-774E-9B38-9AF272D18B06}"/>
-    <hyperlink ref="A168" r:id="rId42" display="https://countrycode.org/gabon" xr:uid="{F575252A-4ADB-134D-B7BC-CFD97A8C127B}"/>
-    <hyperlink ref="A169" r:id="rId43" display="https://countrycode.org/gambia" xr:uid="{BC5158F0-01F9-6F49-8BCA-8E052E3A47FF}"/>
-    <hyperlink ref="A170" r:id="rId44" display="https://countrycode.org/georgia" xr:uid="{5D778DEE-9224-844B-8550-ABE71D5A16C5}"/>
-    <hyperlink ref="A171" r:id="rId45" display="https://countrycode.org/gibraltar" xr:uid="{B929660F-0848-6140-93FC-E4FCC83A2F86}"/>
-    <hyperlink ref="A172" r:id="rId46" display="https://countrycode.org/greenland" xr:uid="{DFC70DC8-74BF-B841-BD94-E27AA2DB2177}"/>
-    <hyperlink ref="A173" r:id="rId47" display="https://countrycode.org/grenada" xr:uid="{6A80E9DF-C703-6545-B317-C5D9324B7A48}"/>
-    <hyperlink ref="A174" r:id="rId48" display="https://countrycode.org/guam" xr:uid="{7B7A6EA5-DF1C-6C4A-BDE4-A3C785750C38}"/>
-    <hyperlink ref="A175" r:id="rId49" display="https://countrycode.org/guernsey" xr:uid="{613F85A7-6837-7649-8F11-C97E8D71548C}"/>
-    <hyperlink ref="A176" r:id="rId50" display="https://countrycode.org/guinea" xr:uid="{6E2B8CD1-D8FA-F642-8073-9A1AD7AA7614}"/>
-    <hyperlink ref="A177" r:id="rId51" display="https://countrycode.org/guineabissau" xr:uid="{D587E234-CDCB-6C48-91FA-F5059FCD0DD1}"/>
-    <hyperlink ref="A178" r:id="rId52" display="https://countrycode.org/guyana" xr:uid="{EF19E1F6-A746-A447-BDC1-98AAD742066F}"/>
-    <hyperlink ref="A179" r:id="rId53" display="https://countrycode.org/hongkong" xr:uid="{49B070AA-A14E-624A-B07D-9E3EBC6ABCCB}"/>
-    <hyperlink ref="A180" r:id="rId54" display="https://countrycode.org/isleofman" xr:uid="{E9968AC0-BFE5-6A48-A8D6-647F84361C09}"/>
-    <hyperlink ref="A181" r:id="rId55" display="https://countrycode.org/jersey" xr:uid="{41CB03CC-CE5B-BC4F-A14D-70FF46D56E8F}"/>
-    <hyperlink ref="A182" r:id="rId56" display="https://countrycode.org/kiribati" xr:uid="{6490EE36-488C-334A-A3CF-AD1E24C0A0AB}"/>
-    <hyperlink ref="A183" r:id="rId57" display="https://countrycode.org/kosovo" xr:uid="{B139B1CF-9AD5-6942-8C45-B9E0C4477012}"/>
-    <hyperlink ref="A184" r:id="rId58" display="https://countrycode.org/kuwait" xr:uid="{FBBBD629-2AAA-6E4A-9A37-7D4DC6B2322C}"/>
-    <hyperlink ref="A185" r:id="rId59" display="https://countrycode.org/kyrgyzstan" xr:uid="{B5D66627-30B7-7F4F-9810-2EC598484E0D}"/>
-    <hyperlink ref="A186" r:id="rId60" display="https://countrycode.org/lesotho" xr:uid="{5085BEF9-5854-6147-8C2B-7CF45C949C09}"/>
-    <hyperlink ref="A187" r:id="rId61" display="https://countrycode.org/liberia" xr:uid="{7832D0AA-E401-0E48-8D06-42D7F982CF91}"/>
-    <hyperlink ref="A188" r:id="rId62" display="https://countrycode.org/liechtenstein" xr:uid="{12C2755A-E5C8-6B41-A2B0-09E58A0C6B18}"/>
-    <hyperlink ref="A189" r:id="rId63" display="https://countrycode.org/luxembourg" xr:uid="{F042CE54-1154-7E43-97C6-D497C81C8D8F}"/>
-    <hyperlink ref="A190" r:id="rId64" display="https://countrycode.org/macau" xr:uid="{39700D42-157A-1148-BDF6-87BF90DAD243}"/>
-    <hyperlink ref="A191" r:id="rId65" display="https://countrycode.org/macedonia" xr:uid="{929181DB-FFCE-014F-8776-DC0E69DCF5CB}"/>
-    <hyperlink ref="A192" r:id="rId66" display="https://countrycode.org/malawi" xr:uid="{DCDB520B-35BB-E54F-80B3-0C44FB232829}"/>
-    <hyperlink ref="A193" r:id="rId67" display="https://countrycode.org/maldives" xr:uid="{6245F96D-56CA-D74D-8F1D-7AD978DA9F39}"/>
-    <hyperlink ref="A194" r:id="rId68" display="https://countrycode.org/malta" xr:uid="{FF00D6D5-AA09-7E4A-BFC3-8E9EE18E8E3F}"/>
-    <hyperlink ref="A195" r:id="rId69" display="https://countrycode.org/marshallislands" xr:uid="{46D69D49-70A3-774D-9F39-BDDEFF184040}"/>
-    <hyperlink ref="A196" r:id="rId70" display="https://countrycode.org/mauritius" xr:uid="{3142BD42-D920-F141-9698-52A64E54DFC7}"/>
-    <hyperlink ref="A197" r:id="rId71" display="https://countrycode.org/mayotte" xr:uid="{F518C51D-39E6-D74E-8F75-5A864063722A}"/>
-    <hyperlink ref="A198" r:id="rId72" display="https://countrycode.org/micronesia" xr:uid="{88FEAEE7-2474-DB44-93B9-583044A01283}"/>
-    <hyperlink ref="A199" r:id="rId73" display="https://countrycode.org/moldova" xr:uid="{BA362AD8-343F-3A48-B1D6-8D3CC7B57DA7}"/>
-    <hyperlink ref="A200" r:id="rId74" display="https://countrycode.org/monaco" xr:uid="{4D35397D-7509-C84C-B795-41D022021157}"/>
-    <hyperlink ref="A201" r:id="rId75" display="https://countrycode.org/mongolia" xr:uid="{377E2C07-0DF3-4947-832B-E4E55A399B2C}"/>
-    <hyperlink ref="A202" r:id="rId76" display="https://countrycode.org/montenegro" xr:uid="{75B6DBC3-B971-724F-8A8F-C96D6CB787C6}"/>
-    <hyperlink ref="A203" r:id="rId77" display="https://countrycode.org/montserrat" xr:uid="{CF58FF79-A561-5444-B299-2718AD4ACFA4}"/>
-    <hyperlink ref="A204" r:id="rId78" display="https://countrycode.org/mozambique" xr:uid="{47124F0B-567F-4E42-867C-95276A04181D}"/>
-    <hyperlink ref="A205" r:id="rId79" display="https://countrycode.org/burma" xr:uid="{833FCBFF-5307-944A-9828-ECD0D75D521B}"/>
-    <hyperlink ref="A206" r:id="rId80" display="https://countrycode.org/nauru" xr:uid="{A574BCDA-77B0-6A4D-AC80-6BC3384F4FB1}"/>
-    <hyperlink ref="A207" r:id="rId81" display="https://countrycode.org/netherlands" xr:uid="{8326FDB5-AAAB-2247-BE93-5DA33B5D6CED}"/>
-    <hyperlink ref="A208" r:id="rId82" display="https://countrycode.org/newcaledonia" xr:uid="{B6CE9095-8C1F-184E-BB66-2EDD2A55057F}"/>
-    <hyperlink ref="A209" r:id="rId83" display="https://countrycode.org/niue" xr:uid="{2BC71396-D8E7-C644-91A3-638759994D93}"/>
-    <hyperlink ref="A210" r:id="rId84" display="https://countrycode.org/northernmarianaislands" xr:uid="{AC70EDC4-418B-534B-8DD6-A73B3E290BDA}"/>
-    <hyperlink ref="A211" r:id="rId85" display="https://countrycode.org/palau" xr:uid="{66C587BE-879B-1B44-A2AA-36979B3C165C}"/>
-    <hyperlink ref="A212" r:id="rId86" display="https://countrycode.org/papuanewguinea" xr:uid="{0E9670EE-60D1-FB4A-96F6-FF8E41EEE379}"/>
-    <hyperlink ref="A213" r:id="rId87" display="https://countrycode.org/pitcairnislands" xr:uid="{A9AB1103-EC68-B942-BDE2-7C7056BCF9C7}"/>
-    <hyperlink ref="A214" r:id="rId88" display="https://countrycode.org/puertorico" xr:uid="{9D4AD6F4-FAF8-9F4A-8167-40F9323D4728}"/>
-    <hyperlink ref="A215" r:id="rId89" display="https://countrycode.org/qatar" xr:uid="{F6E1E887-E15C-6B48-9CC4-B89B607E16EE}"/>
-    <hyperlink ref="A216" r:id="rId90" display="https://countrycode.org/reunion" xr:uid="{8E6DE7F0-D6C5-0845-ABA6-1B345D07E595}"/>
-    <hyperlink ref="A217" r:id="rId91" display="https://countrycode.org/rwanda" xr:uid="{1ECADA8D-B8D4-9E4B-A267-010627E4AE37}"/>
-    <hyperlink ref="A218" r:id="rId92" display="https://countrycode.org/saintbarthelemy" xr:uid="{8B94458B-D68D-6644-B47E-5D3CB07E7BAD}"/>
-    <hyperlink ref="A219" r:id="rId93" display="https://countrycode.org/sthelena" xr:uid="{62C56E05-6BEE-C845-9665-CEF81286463A}"/>
-    <hyperlink ref="A220" r:id="rId94" display="https://countrycode.org/stkitts" xr:uid="{C4D16FB8-43CF-7249-9651-921D52264C1D}"/>
-    <hyperlink ref="A221" r:id="rId95" display="https://countrycode.org/stlucia" xr:uid="{D724DB15-99B6-B34C-8388-F803D369C55A}"/>
-    <hyperlink ref="A222" r:id="rId96" display="https://countrycode.org/stmartin" xr:uid="{E6DEDC96-8077-3B46-949F-CF69D480173C}"/>
-    <hyperlink ref="A223" r:id="rId97" display="https://countrycode.org/stpierre" xr:uid="{D85E8BE1-C9DF-834A-8FD6-1BC944B010CE}"/>
-    <hyperlink ref="A224" r:id="rId98" display="https://countrycode.org/stvincent" xr:uid="{336A842F-FDD1-EE4F-A228-5988044DB974}"/>
-    <hyperlink ref="A225" r:id="rId99" display="https://countrycode.org/sanmarino" xr:uid="{44CC71CB-7599-3B4E-BDD3-C658F2C1F7F0}"/>
-    <hyperlink ref="A226" r:id="rId100" display="https://countrycode.org/saotomeandprincipe" xr:uid="{436AF95B-DB8B-9D45-9C80-810754C46064}"/>
-    <hyperlink ref="A227" r:id="rId101" display="https://countrycode.org/seychelles" xr:uid="{B8C46D1E-B3F7-0E47-8A35-3D47F5A4290E}"/>
-    <hyperlink ref="A228" r:id="rId102" display="https://countrycode.org/sierraleone" xr:uid="{4A1DE959-DD3D-2C4C-8BD4-DAD19B47D8D1}"/>
-    <hyperlink ref="A229" r:id="rId103" display="https://countrycode.org/sintmaarten" xr:uid="{166853A7-7F21-C040-936D-1E7809FDF7FC}"/>
-    <hyperlink ref="A230" r:id="rId104" display="https://countrycode.org/slovenia" xr:uid="{7C11D6E5-B664-9C4A-B76B-8E4AF97041FA}"/>
-    <hyperlink ref="A231" r:id="rId105" display="https://countrycode.org/solomonislands" xr:uid="{9DE0889D-818C-804A-8027-C716F1216E12}"/>
-    <hyperlink ref="A232" r:id="rId106" display="https://countrycode.org/southsudan" xr:uid="{98DF3F2E-19C5-3948-82FC-F13D534CD4FA}"/>
-    <hyperlink ref="A233" r:id="rId107" display="https://countrycode.org/srilanka" xr:uid="{DC5CDAF2-7465-E446-979B-A048A97F1EB4}"/>
-    <hyperlink ref="A234" r:id="rId108" display="https://countrycode.org/suriname" xr:uid="{3BFA29D4-C407-8240-B223-572FF239EEDB}"/>
-    <hyperlink ref="A235" r:id="rId109" display="https://countrycode.org/swaziland" xr:uid="{457591A0-6565-BC44-AE99-830A9DB5D2E9}"/>
-    <hyperlink ref="A236" r:id="rId110" display="https://countrycode.org/taiwan" xr:uid="{469E3DB6-F75B-3E42-AF5A-39D8E1960DA1}"/>
-    <hyperlink ref="A237" r:id="rId111" display="https://countrycode.org/tajikistan" xr:uid="{DBBAD412-E2AF-3948-A5FF-E043F936E6FB}"/>
-    <hyperlink ref="A238" r:id="rId112" display="https://countrycode.org/tanzania" xr:uid="{508291DD-EE8B-D14B-B3AC-081882EA8E63}"/>
-    <hyperlink ref="A239" r:id="rId113" display="https://countrycode.org/togo" xr:uid="{EC970ADB-0403-7F4D-9B17-B369A38D43C6}"/>
-    <hyperlink ref="A240" r:id="rId114" display="https://countrycode.org/tokelau" xr:uid="{9E23E139-81D5-6640-B88C-8A776D618E18}"/>
-    <hyperlink ref="A241" r:id="rId115" display="https://countrycode.org/tonga" xr:uid="{AA2EAC7A-3037-3C40-BCA3-A123B3DE66B1}"/>
-    <hyperlink ref="A242" r:id="rId116" display="https://countrycode.org/trinidadandtobago" xr:uid="{410711BF-AE3F-5E4A-A1A0-573357B4841B}"/>
-    <hyperlink ref="A243" r:id="rId117" display="https://countrycode.org/turksandcaicos" xr:uid="{8A13E624-B38E-9245-8CBB-D4C46193484A}"/>
-    <hyperlink ref="A244" r:id="rId118" display="https://countrycode.org/tuvalu" xr:uid="{5AE15C4F-EE54-FD4C-AB65-151DA170CE95}"/>
-    <hyperlink ref="A245" r:id="rId119" display="https://countrycode.org/uganda" xr:uid="{EEB56E1A-DD7A-144A-9F4C-7088F4FA2180}"/>
-    <hyperlink ref="A246" r:id="rId120" display="https://countrycode.org/uzbekistan" xr:uid="{55542671-7F44-1A45-B052-EE914723E8E4}"/>
-    <hyperlink ref="A247" r:id="rId121" display="https://countrycode.org/vanuatu" xr:uid="{5489A845-7D28-104D-A033-250D019BB045}"/>
-    <hyperlink ref="A248" r:id="rId122" display="https://countrycode.org/venezuela" xr:uid="{EE37F4C2-39BF-CA4B-AE3D-942CBCD4DD9E}"/>
-    <hyperlink ref="A249" r:id="rId123" display="https://countrycode.org/wallisandfutuna" xr:uid="{FBA8CCDD-956D-7B49-B542-7CF99B6E7C5C}"/>
-    <hyperlink ref="A250" r:id="rId124" display="https://countrycode.org/westernsahara" xr:uid="{2AFA44AB-4866-E74E-B823-BD7B17B081C9}"/>
-    <hyperlink ref="A251" r:id="rId125" display="https://countrycode.org/yemen" xr:uid="{728D95A8-526F-C14D-97EA-D59FA23CDF31}"/>
-    <hyperlink ref="A252" r:id="rId126" display="https://countrycode.org/stvincent" xr:uid="{800C0671-2415-2A4E-B887-402029076917}"/>
-    <hyperlink ref="A253" r:id="rId127" display="https://countrycode.org/uzbekistan" xr:uid="{3B1F4791-CAAA-1843-AB4F-E9B5327C65C6}"/>
-    <hyperlink ref="A254" r:id="rId128" display="https://countrycode.org/trinidadandtobago" xr:uid="{C614F584-C7A3-6B4C-A56A-0B11178EF995}"/>
-    <hyperlink ref="A255" r:id="rId129" display="https://countrycode.org/lesotho" xr:uid="{364E8BAF-7F33-124B-A1C8-0925E922FDF4}"/>
-    <hyperlink ref="A256" r:id="rId130" display="https://countrycode.org/slovenia" xr:uid="{DC6726FA-D619-E64A-91DE-1278A99149E6}"/>
-    <hyperlink ref="A257" r:id="rId131" display="https://countrycode.org/reunion" xr:uid="{80E02720-069B-5545-BB75-A28CC544EFA7}"/>
-    <hyperlink ref="A258" r:id="rId132" display="https://countrycode.org/papuanewguinea" xr:uid="{1E6D0077-0AFC-8E4D-BF14-6BC092198C54}"/>
-    <hyperlink ref="A259" r:id="rId133" display="https://countrycode.org/vanuatu" xr:uid="{50187118-7473-F746-B484-B6F650AF91B4}"/>
-    <hyperlink ref="A260" r:id="rId134" display="https://countrycode.org/stkitts" xr:uid="{BECE6DF0-3212-5742-81EE-FDF570D872CC}"/>
-    <hyperlink ref="A261" r:id="rId135" display="https://countrycode.org/monaco" xr:uid="{B565F34D-F6B8-2240-BE73-31795AAA07D8}"/>
-    <hyperlink ref="A262" r:id="rId136" display="https://countrycode.org/kyrgyzstan" xr:uid="{1FF17B46-05AF-6641-82A1-78CD8B06D350}"/>
-    <hyperlink ref="A263" r:id="rId137" display="https://countrycode.org/kosovo" xr:uid="{822459E8-B69D-5A46-AA7A-AAD444F18008}"/>
-    <hyperlink ref="A264" r:id="rId138" display="https://countrycode.org/hongkong" xr:uid="{860F6B8B-D503-E742-9E8A-6F308CAADBC7}"/>
-    <hyperlink ref="A265" r:id="rId139" display="https://countrycode.org/wallisandfutuna" xr:uid="{4701AEB2-98BA-A94B-85F5-61656F777A3B}"/>
-    <hyperlink ref="A266" r:id="rId140" display="https://countrycode.org/equatorialguinea" xr:uid="{1EDB5290-57C4-2C42-9F22-82BA4EA9032A}"/>
-    <hyperlink ref="A267" r:id="rId141" display="https://countrycode.org/comoros" xr:uid="{DA551E2C-139C-C14B-8955-BDE898F4D665}"/>
-    <hyperlink ref="A268" r:id="rId142" display="https://countrycode.org/burma" xr:uid="{62B40543-851F-9D4D-A8F4-646FA4369231}"/>
-    <hyperlink ref="A269" r:id="rId143" display="https://countrycode.org/bermuda" xr:uid="{E893CC57-C22B-2849-B02C-DE9E56DCB0E0}"/>
-    <hyperlink ref="A270" r:id="rId144" display="https://countrycode.org/benin" xr:uid="{3640DDA6-99C0-0442-A7D0-B74C46BD9EFA}"/>
-    <hyperlink ref="A271" r:id="rId145" display="https://countrycode.org/antiguaandbarbuda" xr:uid="{C8B89922-1BBC-2D43-8145-F03EAFA44AC9}"/>
-    <hyperlink ref="A272" r:id="rId146" display="https://countrycode.org/westernsahara" xr:uid="{BDC9DA8C-821D-2342-912A-87094B6632EE}"/>
-    <hyperlink ref="A273" r:id="rId147" display="https://countrycode.org/stpierre" xr:uid="{D171796D-1462-B043-86DA-BA22CE76CAE2}"/>
+    <hyperlink ref="A126" r:id="rId1" display="https://countrycode.org/albania" xr:uid="{821FB568-7965-4B4F-A69A-2AE94667F0FC}"/>
+    <hyperlink ref="A127" r:id="rId2" display="https://countrycode.org/americansamoa" xr:uid="{4A05610C-7D7E-764F-BA1B-4D28C671A9EC}"/>
+    <hyperlink ref="A128" r:id="rId3" display="https://countrycode.org/andorra" xr:uid="{E84AD4A6-DA38-D549-9B63-770C9D288164}"/>
+    <hyperlink ref="A129" r:id="rId4" display="https://countrycode.org/anguilla" xr:uid="{8944C3F7-170D-814E-8C57-E090025A6A51}"/>
+    <hyperlink ref="A130" r:id="rId5" display="https://countrycode.org/antarctica" xr:uid="{C9C08D4A-5F55-6B44-AEA6-ACF9FDC1DCB7}"/>
+    <hyperlink ref="A131" r:id="rId6" display="https://countrycode.org/antiguaandbarbuda" xr:uid="{CAF3DA4A-CEDC-5448-B001-5B59EE9D3088}"/>
+    <hyperlink ref="A132" r:id="rId7" display="https://countrycode.org/armenia" xr:uid="{AA5A6F4F-04CD-3C4D-8228-A34AD709F4AF}"/>
+    <hyperlink ref="A133" r:id="rId8" display="https://countrycode.org/aruba" xr:uid="{C3810B19-C3F6-4648-BA5F-D99EA2E21FA3}"/>
+    <hyperlink ref="A134" r:id="rId9" display="https://countrycode.org/azerbaijan" xr:uid="{39C2A3C5-8739-2049-A721-29B935EDE779}"/>
+    <hyperlink ref="A135" r:id="rId10" display="https://countrycode.org/bahamas" xr:uid="{0D63EC0B-2030-1B48-96AE-B4A0EF2004DD}"/>
+    <hyperlink ref="A136" r:id="rId11" display="https://countrycode.org/bahrain" xr:uid="{6976A9A5-30E4-5848-99CB-38C337152F41}"/>
+    <hyperlink ref="A137" r:id="rId12" display="https://countrycode.org/barbados" xr:uid="{397BB9C6-91D2-2942-AC0D-ACCDF5B64108}"/>
+    <hyperlink ref="A138" r:id="rId13" display="https://countrycode.org/belize" xr:uid="{A3CE13E6-7CCC-2643-9543-FB2B9702A1D9}"/>
+    <hyperlink ref="A139" r:id="rId14" display="https://countrycode.org/benin" xr:uid="{4191652C-CB21-1049-A546-87272911F4DB}"/>
+    <hyperlink ref="A140" r:id="rId15" display="https://countrycode.org/bermuda" xr:uid="{C3B550F1-0379-184E-85A3-67E53546AB43}"/>
+    <hyperlink ref="A141" r:id="rId16" display="https://countrycode.org/bhutan" xr:uid="{32467820-07B1-4A4B-8073-5F7FBA7E4ED3}"/>
+    <hyperlink ref="A142" r:id="rId17" display="https://countrycode.org/botswana" xr:uid="{DCB565FC-D4A3-F641-A3B4-470AE5ED54A4}"/>
+    <hyperlink ref="A143" r:id="rId18" display="https://countrycode.org/britishindianoceanterritory" xr:uid="{EA4CF971-1447-7848-A6C5-059EC2E879DE}"/>
+    <hyperlink ref="A144" r:id="rId19" display="https://countrycode.org/britishvirginislands" xr:uid="{0A2E9D9B-4C4C-7D4B-89A8-256DB2D770F1}"/>
+    <hyperlink ref="A145" r:id="rId20" display="https://countrycode.org/brunei" xr:uid="{85DEB85F-AB9A-9346-81BD-CEE9B9368837}"/>
+    <hyperlink ref="A146" r:id="rId21" display="https://countrycode.org/burkinafaso" xr:uid="{3AEA6F29-AC3E-6A43-8FFE-6B82E90DD259}"/>
+    <hyperlink ref="A147" r:id="rId22" display="https://countrycode.org/burundi" xr:uid="{B754D75C-09DA-C74D-9F9C-43967FDCCB88}"/>
+    <hyperlink ref="A148" r:id="rId23" display="https://countrycode.org/capeverde" xr:uid="{8FE7153A-36EC-AC4A-998D-B0D4B97D1B21}"/>
+    <hyperlink ref="A149" r:id="rId24" display="https://countrycode.org/caymanislands" xr:uid="{7D19FA3A-A019-EB43-93DB-4E79B4CC7EF9}"/>
+    <hyperlink ref="A150" r:id="rId25" display="https://countrycode.org/chile" xr:uid="{78FAD572-C96B-B849-851C-4546D9008247}"/>
+    <hyperlink ref="A151" r:id="rId26" display="https://countrycode.org/christmasisland" xr:uid="{491B8E32-4121-754D-964B-CA472D150D04}"/>
+    <hyperlink ref="A152" r:id="rId27" display="https://countrycode.org/cocoskeelingislands" xr:uid="{D73D67A3-3A13-3A45-B4E7-19EADDEB6E4C}"/>
+    <hyperlink ref="A153" r:id="rId28" display="https://countrycode.org/comoros" xr:uid="{6527690C-19D4-E245-8967-721A3226F019}"/>
+    <hyperlink ref="A154" r:id="rId29" display="https://countrycode.org/cookislands" xr:uid="{F4078258-0B1D-4645-ADB3-4946CAF0F3EF}"/>
+    <hyperlink ref="A155" r:id="rId30" display="https://countrycode.org/cuba" xr:uid="{077191C0-2190-DE40-9A67-C7E2E5B31777}"/>
+    <hyperlink ref="A156" r:id="rId31" display="https://countrycode.org/curacao" xr:uid="{98593ABE-4929-6944-ABA6-93DD36F4F304}"/>
+    <hyperlink ref="A157" r:id="rId32" display="https://countrycode.org/cyprus" xr:uid="{F6FE53C5-2ABC-CC4D-BA6E-DB3B9B9234EE}"/>
+    <hyperlink ref="A158" r:id="rId33" display="https://countrycode.org/djibouti" xr:uid="{ACD06594-99A9-3248-B38B-797F568140E2}"/>
+    <hyperlink ref="A159" r:id="rId34" display="https://countrycode.org/dominica" xr:uid="{9EE14BD4-886A-084F-BF5A-6FBE9BF44BE5}"/>
+    <hyperlink ref="A160" r:id="rId35" display="https://countrycode.org/easttimor" xr:uid="{A73367FD-83A4-AD46-AE9F-392A6A6E8E06}"/>
+    <hyperlink ref="A161" r:id="rId36" display="https://countrycode.org/equatorialguinea" xr:uid="{D0577054-FF5D-2B49-AB18-908E1EDB10C9}"/>
+    <hyperlink ref="A162" r:id="rId37" display="https://countrycode.org/eritrea" xr:uid="{DC2CF6CA-3C55-2D46-BDCD-1B9AEAA4D2AD}"/>
+    <hyperlink ref="A163" r:id="rId38" display="https://countrycode.org/falklands" xr:uid="{2AD9085B-8975-7F49-8382-3E35F2F56C19}"/>
+    <hyperlink ref="A164" r:id="rId39" display="https://countrycode.org/faroeislands" xr:uid="{ED75B6ED-6A6B-D24A-B5DE-0DC8982E7952}"/>
+    <hyperlink ref="A165" r:id="rId40" display="https://countrycode.org/fiji" xr:uid="{5C08B35C-F467-A549-948C-00D3F11D8AE0}"/>
+    <hyperlink ref="A166" r:id="rId41" display="https://countrycode.org/frenchpolynesia" xr:uid="{A29A0232-DF9C-774E-9B38-9AF272D18B06}"/>
+    <hyperlink ref="A167" r:id="rId42" display="https://countrycode.org/gabon" xr:uid="{F575252A-4ADB-134D-B7BC-CFD97A8C127B}"/>
+    <hyperlink ref="A168" r:id="rId43" display="https://countrycode.org/gambia" xr:uid="{BC5158F0-01F9-6F49-8BCA-8E052E3A47FF}"/>
+    <hyperlink ref="A169" r:id="rId44" display="https://countrycode.org/georgia" xr:uid="{5D778DEE-9224-844B-8550-ABE71D5A16C5}"/>
+    <hyperlink ref="A170" r:id="rId45" display="https://countrycode.org/gibraltar" xr:uid="{B929660F-0848-6140-93FC-E4FCC83A2F86}"/>
+    <hyperlink ref="A171" r:id="rId46" display="https://countrycode.org/greenland" xr:uid="{DFC70DC8-74BF-B841-BD94-E27AA2DB2177}"/>
+    <hyperlink ref="A172" r:id="rId47" display="https://countrycode.org/grenada" xr:uid="{6A80E9DF-C703-6545-B317-C5D9324B7A48}"/>
+    <hyperlink ref="A173" r:id="rId48" display="https://countrycode.org/guam" xr:uid="{7B7A6EA5-DF1C-6C4A-BDE4-A3C785750C38}"/>
+    <hyperlink ref="A174" r:id="rId49" display="https://countrycode.org/guernsey" xr:uid="{613F85A7-6837-7649-8F11-C97E8D71548C}"/>
+    <hyperlink ref="A175" r:id="rId50" display="https://countrycode.org/guinea" xr:uid="{6E2B8CD1-D8FA-F642-8073-9A1AD7AA7614}"/>
+    <hyperlink ref="A176" r:id="rId51" display="https://countrycode.org/guineabissau" xr:uid="{D587E234-CDCB-6C48-91FA-F5059FCD0DD1}"/>
+    <hyperlink ref="A177" r:id="rId52" display="https://countrycode.org/guyana" xr:uid="{EF19E1F6-A746-A447-BDC1-98AAD742066F}"/>
+    <hyperlink ref="A178" r:id="rId53" display="https://countrycode.org/hongkong" xr:uid="{49B070AA-A14E-624A-B07D-9E3EBC6ABCCB}"/>
+    <hyperlink ref="A179" r:id="rId54" display="https://countrycode.org/isleofman" xr:uid="{E9968AC0-BFE5-6A48-A8D6-647F84361C09}"/>
+    <hyperlink ref="A180" r:id="rId55" display="https://countrycode.org/jersey" xr:uid="{41CB03CC-CE5B-BC4F-A14D-70FF46D56E8F}"/>
+    <hyperlink ref="A181" r:id="rId56" display="https://countrycode.org/kiribati" xr:uid="{6490EE36-488C-334A-A3CF-AD1E24C0A0AB}"/>
+    <hyperlink ref="A182" r:id="rId57" display="https://countrycode.org/kosovo" xr:uid="{B139B1CF-9AD5-6942-8C45-B9E0C4477012}"/>
+    <hyperlink ref="A183" r:id="rId58" display="https://countrycode.org/kuwait" xr:uid="{FBBBD629-2AAA-6E4A-9A37-7D4DC6B2322C}"/>
+    <hyperlink ref="A184" r:id="rId59" display="https://countrycode.org/kyrgyzstan" xr:uid="{B5D66627-30B7-7F4F-9810-2EC598484E0D}"/>
+    <hyperlink ref="A185" r:id="rId60" display="https://countrycode.org/lesotho" xr:uid="{5085BEF9-5854-6147-8C2B-7CF45C949C09}"/>
+    <hyperlink ref="A186" r:id="rId61" display="https://countrycode.org/liberia" xr:uid="{7832D0AA-E401-0E48-8D06-42D7F982CF91}"/>
+    <hyperlink ref="A187" r:id="rId62" display="https://countrycode.org/liechtenstein" xr:uid="{12C2755A-E5C8-6B41-A2B0-09E58A0C6B18}"/>
+    <hyperlink ref="A188" r:id="rId63" display="https://countrycode.org/luxembourg" xr:uid="{F042CE54-1154-7E43-97C6-D497C81C8D8F}"/>
+    <hyperlink ref="A189" r:id="rId64" display="https://countrycode.org/macau" xr:uid="{39700D42-157A-1148-BDF6-87BF90DAD243}"/>
+    <hyperlink ref="A190" r:id="rId65" display="https://countrycode.org/macedonia" xr:uid="{929181DB-FFCE-014F-8776-DC0E69DCF5CB}"/>
+    <hyperlink ref="A191" r:id="rId66" display="https://countrycode.org/malawi" xr:uid="{DCDB520B-35BB-E54F-80B3-0C44FB232829}"/>
+    <hyperlink ref="A192" r:id="rId67" display="https://countrycode.org/maldives" xr:uid="{6245F96D-56CA-D74D-8F1D-7AD978DA9F39}"/>
+    <hyperlink ref="A193" r:id="rId68" display="https://countrycode.org/malta" xr:uid="{FF00D6D5-AA09-7E4A-BFC3-8E9EE18E8E3F}"/>
+    <hyperlink ref="A194" r:id="rId69" display="https://countrycode.org/marshallislands" xr:uid="{46D69D49-70A3-774D-9F39-BDDEFF184040}"/>
+    <hyperlink ref="A195" r:id="rId70" display="https://countrycode.org/mauritius" xr:uid="{3142BD42-D920-F141-9698-52A64E54DFC7}"/>
+    <hyperlink ref="A196" r:id="rId71" display="https://countrycode.org/mayotte" xr:uid="{F518C51D-39E6-D74E-8F75-5A864063722A}"/>
+    <hyperlink ref="A197" r:id="rId72" display="https://countrycode.org/micronesia" xr:uid="{88FEAEE7-2474-DB44-93B9-583044A01283}"/>
+    <hyperlink ref="A198" r:id="rId73" display="https://countrycode.org/moldova" xr:uid="{BA362AD8-343F-3A48-B1D6-8D3CC7B57DA7}"/>
+    <hyperlink ref="A199" r:id="rId74" display="https://countrycode.org/monaco" xr:uid="{4D35397D-7509-C84C-B795-41D022021157}"/>
+    <hyperlink ref="A200" r:id="rId75" display="https://countrycode.org/mongolia" xr:uid="{377E2C07-0DF3-4947-832B-E4E55A399B2C}"/>
+    <hyperlink ref="A201" r:id="rId76" display="https://countrycode.org/montenegro" xr:uid="{75B6DBC3-B971-724F-8A8F-C96D6CB787C6}"/>
+    <hyperlink ref="A202" r:id="rId77" display="https://countrycode.org/montserrat" xr:uid="{CF58FF79-A561-5444-B299-2718AD4ACFA4}"/>
+    <hyperlink ref="A203" r:id="rId78" display="https://countrycode.org/mozambique" xr:uid="{47124F0B-567F-4E42-867C-95276A04181D}"/>
+    <hyperlink ref="A204" r:id="rId79" display="https://countrycode.org/burma" xr:uid="{833FCBFF-5307-944A-9828-ECD0D75D521B}"/>
+    <hyperlink ref="A205" r:id="rId80" display="https://countrycode.org/nauru" xr:uid="{A574BCDA-77B0-6A4D-AC80-6BC3384F4FB1}"/>
+    <hyperlink ref="A206" r:id="rId81" display="https://countrycode.org/netherlands" xr:uid="{8326FDB5-AAAB-2247-BE93-5DA33B5D6CED}"/>
+    <hyperlink ref="A207" r:id="rId82" display="https://countrycode.org/newcaledonia" xr:uid="{B6CE9095-8C1F-184E-BB66-2EDD2A55057F}"/>
+    <hyperlink ref="A208" r:id="rId83" display="https://countrycode.org/niue" xr:uid="{2BC71396-D8E7-C644-91A3-638759994D93}"/>
+    <hyperlink ref="A209" r:id="rId84" display="https://countrycode.org/northernmarianaislands" xr:uid="{AC70EDC4-418B-534B-8DD6-A73B3E290BDA}"/>
+    <hyperlink ref="A210" r:id="rId85" display="https://countrycode.org/palau" xr:uid="{66C587BE-879B-1B44-A2AA-36979B3C165C}"/>
+    <hyperlink ref="A211" r:id="rId86" display="https://countrycode.org/papuanewguinea" xr:uid="{0E9670EE-60D1-FB4A-96F6-FF8E41EEE379}"/>
+    <hyperlink ref="A212" r:id="rId87" display="https://countrycode.org/pitcairnislands" xr:uid="{A9AB1103-EC68-B942-BDE2-7C7056BCF9C7}"/>
+    <hyperlink ref="A213" r:id="rId88" display="https://countrycode.org/puertorico" xr:uid="{9D4AD6F4-FAF8-9F4A-8167-40F9323D4728}"/>
+    <hyperlink ref="A214" r:id="rId89" display="https://countrycode.org/qatar" xr:uid="{F6E1E887-E15C-6B48-9CC4-B89B607E16EE}"/>
+    <hyperlink ref="A215" r:id="rId90" display="https://countrycode.org/reunion" xr:uid="{8E6DE7F0-D6C5-0845-ABA6-1B345D07E595}"/>
+    <hyperlink ref="A216" r:id="rId91" display="https://countrycode.org/rwanda" xr:uid="{1ECADA8D-B8D4-9E4B-A267-010627E4AE37}"/>
+    <hyperlink ref="A217" r:id="rId92" display="https://countrycode.org/saintbarthelemy" xr:uid="{8B94458B-D68D-6644-B47E-5D3CB07E7BAD}"/>
+    <hyperlink ref="A218" r:id="rId93" display="https://countrycode.org/sthelena" xr:uid="{62C56E05-6BEE-C845-9665-CEF81286463A}"/>
+    <hyperlink ref="A219" r:id="rId94" display="https://countrycode.org/stkitts" xr:uid="{C4D16FB8-43CF-7249-9651-921D52264C1D}"/>
+    <hyperlink ref="A220" r:id="rId95" display="https://countrycode.org/stlucia" xr:uid="{D724DB15-99B6-B34C-8388-F803D369C55A}"/>
+    <hyperlink ref="A221" r:id="rId96" display="https://countrycode.org/stmartin" xr:uid="{E6DEDC96-8077-3B46-949F-CF69D480173C}"/>
+    <hyperlink ref="A222" r:id="rId97" display="https://countrycode.org/stpierre" xr:uid="{D85E8BE1-C9DF-834A-8FD6-1BC944B010CE}"/>
+    <hyperlink ref="A223" r:id="rId98" display="https://countrycode.org/stvincent" xr:uid="{336A842F-FDD1-EE4F-A228-5988044DB974}"/>
+    <hyperlink ref="A224" r:id="rId99" display="https://countrycode.org/sanmarino" xr:uid="{44CC71CB-7599-3B4E-BDD3-C658F2C1F7F0}"/>
+    <hyperlink ref="A225" r:id="rId100" display="https://countrycode.org/saotomeandprincipe" xr:uid="{436AF95B-DB8B-9D45-9C80-810754C46064}"/>
+    <hyperlink ref="A226" r:id="rId101" display="https://countrycode.org/seychelles" xr:uid="{B8C46D1E-B3F7-0E47-8A35-3D47F5A4290E}"/>
+    <hyperlink ref="A227" r:id="rId102" display="https://countrycode.org/sierraleone" xr:uid="{4A1DE959-DD3D-2C4C-8BD4-DAD19B47D8D1}"/>
+    <hyperlink ref="A228" r:id="rId103" display="https://countrycode.org/sintmaarten" xr:uid="{166853A7-7F21-C040-936D-1E7809FDF7FC}"/>
+    <hyperlink ref="A229" r:id="rId104" display="https://countrycode.org/slovenia" xr:uid="{7C11D6E5-B664-9C4A-B76B-8E4AF97041FA}"/>
+    <hyperlink ref="A230" r:id="rId105" display="https://countrycode.org/solomonislands" xr:uid="{9DE0889D-818C-804A-8027-C716F1216E12}"/>
+    <hyperlink ref="A231" r:id="rId106" display="https://countrycode.org/southsudan" xr:uid="{98DF3F2E-19C5-3948-82FC-F13D534CD4FA}"/>
+    <hyperlink ref="A232" r:id="rId107" display="https://countrycode.org/srilanka" xr:uid="{DC5CDAF2-7465-E446-979B-A048A97F1EB4}"/>
+    <hyperlink ref="A233" r:id="rId108" display="https://countrycode.org/suriname" xr:uid="{3BFA29D4-C407-8240-B223-572FF239EEDB}"/>
+    <hyperlink ref="A234" r:id="rId109" display="https://countrycode.org/swaziland" xr:uid="{457591A0-6565-BC44-AE99-830A9DB5D2E9}"/>
+    <hyperlink ref="A235" r:id="rId110" display="https://countrycode.org/taiwan" xr:uid="{469E3DB6-F75B-3E42-AF5A-39D8E1960DA1}"/>
+    <hyperlink ref="A236" r:id="rId111" display="https://countrycode.org/tajikistan" xr:uid="{DBBAD412-E2AF-3948-A5FF-E043F936E6FB}"/>
+    <hyperlink ref="A237" r:id="rId112" display="https://countrycode.org/tanzania" xr:uid="{508291DD-EE8B-D14B-B3AC-081882EA8E63}"/>
+    <hyperlink ref="A238" r:id="rId113" display="https://countrycode.org/togo" xr:uid="{EC970ADB-0403-7F4D-9B17-B369A38D43C6}"/>
+    <hyperlink ref="A239" r:id="rId114" display="https://countrycode.org/tokelau" xr:uid="{9E23E139-81D5-6640-B88C-8A776D618E18}"/>
+    <hyperlink ref="A240" r:id="rId115" display="https://countrycode.org/tonga" xr:uid="{AA2EAC7A-3037-3C40-BCA3-A123B3DE66B1}"/>
+    <hyperlink ref="A241" r:id="rId116" display="https://countrycode.org/trinidadandtobago" xr:uid="{410711BF-AE3F-5E4A-A1A0-573357B4841B}"/>
+    <hyperlink ref="A242" r:id="rId117" display="https://countrycode.org/turksandcaicos" xr:uid="{8A13E624-B38E-9245-8CBB-D4C46193484A}"/>
+    <hyperlink ref="A243" r:id="rId118" display="https://countrycode.org/tuvalu" xr:uid="{5AE15C4F-EE54-FD4C-AB65-151DA170CE95}"/>
+    <hyperlink ref="A244" r:id="rId119" display="https://countrycode.org/uganda" xr:uid="{EEB56E1A-DD7A-144A-9F4C-7088F4FA2180}"/>
+    <hyperlink ref="A245" r:id="rId120" display="https://countrycode.org/uzbekistan" xr:uid="{55542671-7F44-1A45-B052-EE914723E8E4}"/>
+    <hyperlink ref="A246" r:id="rId121" display="https://countrycode.org/vanuatu" xr:uid="{5489A845-7D28-104D-A033-250D019BB045}"/>
+    <hyperlink ref="A247" r:id="rId122" display="https://countrycode.org/venezuela" xr:uid="{EE37F4C2-39BF-CA4B-AE3D-942CBCD4DD9E}"/>
+    <hyperlink ref="A248" r:id="rId123" display="https://countrycode.org/wallisandfutuna" xr:uid="{FBA8CCDD-956D-7B49-B542-7CF99B6E7C5C}"/>
+    <hyperlink ref="A249" r:id="rId124" display="https://countrycode.org/westernsahara" xr:uid="{2AFA44AB-4866-E74E-B823-BD7B17B081C9}"/>
+    <hyperlink ref="A250" r:id="rId125" display="https://countrycode.org/yemen" xr:uid="{728D95A8-526F-C14D-97EA-D59FA23CDF31}"/>
+    <hyperlink ref="A251" r:id="rId126" display="https://countrycode.org/stvincent" xr:uid="{800C0671-2415-2A4E-B887-402029076917}"/>
+    <hyperlink ref="A252" r:id="rId127" display="https://countrycode.org/uzbekistan" xr:uid="{3B1F4791-CAAA-1843-AB4F-E9B5327C65C6}"/>
+    <hyperlink ref="A253" r:id="rId128" display="https://countrycode.org/trinidadandtobago" xr:uid="{C614F584-C7A3-6B4C-A56A-0B11178EF995}"/>
+    <hyperlink ref="A254" r:id="rId129" display="https://countrycode.org/lesotho" xr:uid="{364E8BAF-7F33-124B-A1C8-0925E922FDF4}"/>
+    <hyperlink ref="A255" r:id="rId130" display="https://countrycode.org/slovenia" xr:uid="{DC6726FA-D619-E64A-91DE-1278A99149E6}"/>
+    <hyperlink ref="A256" r:id="rId131" display="https://countrycode.org/reunion" xr:uid="{80E02720-069B-5545-BB75-A28CC544EFA7}"/>
+    <hyperlink ref="A257" r:id="rId132" display="https://countrycode.org/papuanewguinea" xr:uid="{1E6D0077-0AFC-8E4D-BF14-6BC092198C54}"/>
+    <hyperlink ref="A258" r:id="rId133" display="https://countrycode.org/vanuatu" xr:uid="{50187118-7473-F746-B484-B6F650AF91B4}"/>
+    <hyperlink ref="A259" r:id="rId134" display="https://countrycode.org/stkitts" xr:uid="{BECE6DF0-3212-5742-81EE-FDF570D872CC}"/>
+    <hyperlink ref="A260" r:id="rId135" display="https://countrycode.org/monaco" xr:uid="{B565F34D-F6B8-2240-BE73-31795AAA07D8}"/>
+    <hyperlink ref="A261" r:id="rId136" display="https://countrycode.org/kyrgyzstan" xr:uid="{1FF17B46-05AF-6641-82A1-78CD8B06D350}"/>
+    <hyperlink ref="A262" r:id="rId137" display="https://countrycode.org/kosovo" xr:uid="{822459E8-B69D-5A46-AA7A-AAD444F18008}"/>
+    <hyperlink ref="A263" r:id="rId138" display="https://countrycode.org/hongkong" xr:uid="{860F6B8B-D503-E742-9E8A-6F308CAADBC7}"/>
+    <hyperlink ref="A264" r:id="rId139" display="https://countrycode.org/wallisandfutuna" xr:uid="{4701AEB2-98BA-A94B-85F5-61656F777A3B}"/>
+    <hyperlink ref="A265" r:id="rId140" display="https://countrycode.org/equatorialguinea" xr:uid="{1EDB5290-57C4-2C42-9F22-82BA4EA9032A}"/>
+    <hyperlink ref="A266" r:id="rId141" display="https://countrycode.org/comoros" xr:uid="{DA551E2C-139C-C14B-8955-BDE898F4D665}"/>
+    <hyperlink ref="A267" r:id="rId142" display="https://countrycode.org/burma" xr:uid="{62B40543-851F-9D4D-A8F4-646FA4369231}"/>
+    <hyperlink ref="A268" r:id="rId143" display="https://countrycode.org/bermuda" xr:uid="{E893CC57-C22B-2849-B02C-DE9E56DCB0E0}"/>
+    <hyperlink ref="A269" r:id="rId144" display="https://countrycode.org/benin" xr:uid="{3640DDA6-99C0-0442-A7D0-B74C46BD9EFA}"/>
+    <hyperlink ref="A270" r:id="rId145" display="https://countrycode.org/antiguaandbarbuda" xr:uid="{C8B89922-1BBC-2D43-8145-F03EAFA44AC9}"/>
+    <hyperlink ref="A271" r:id="rId146" display="https://countrycode.org/westernsahara" xr:uid="{BDC9DA8C-821D-2342-912A-87094B6632EE}"/>
+    <hyperlink ref="A272" r:id="rId147" display="https://countrycode.org/stpierre" xr:uid="{D171796D-1462-B043-86DA-BA22CE76CAE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10661,14 +10627,14 @@
         <v>503</v>
       </c>
       <c r="C2" t="e">
-        <f>MATCH(A2, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A2, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E2" t="s">
         <v>1098</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1099</v>
       </c>
       <c r="G2">
         <f>MATCH(A2, Sheet3!A$2:A$264,0)</f>
@@ -10683,11 +10649,11 @@
         <v>576</v>
       </c>
       <c r="C3" t="e">
-        <f>MATCH(A3, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A3, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E3" t="s">
         <v>611</v>
@@ -10705,14 +10671,14 @@
         <v>557</v>
       </c>
       <c r="C4" t="e">
-        <f>MATCH(A4, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A4, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E4" t="s">
         <v>1075</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1076</v>
       </c>
       <c r="G4">
         <f>MATCH(A4, Sheet3!A$2:A$264,0)</f>
@@ -10727,7 +10693,7 @@
         <v>395</v>
       </c>
       <c r="C5" t="e">
-        <f>MATCH(A5, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A5, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D5" t="str">
@@ -10735,7 +10701,7 @@
         <v>Basotho</v>
       </c>
       <c r="E5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G5">
         <f>MATCH(A5, Sheet3!A$2:A$264,0)</f>
@@ -10750,14 +10716,14 @@
         <v>522</v>
       </c>
       <c r="C6" t="e">
-        <f>MATCH(A6, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A6, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D6" t="s">
         <v>621</v>
       </c>
       <c r="E6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G6">
         <f>MATCH(A6, Sheet3!A$2:A$264,0)</f>
@@ -10772,14 +10738,14 @@
         <v>486</v>
       </c>
       <c r="C7" t="e">
-        <f>MATCH(A7, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A7, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E7" t="s">
         <v>1072</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1073</v>
       </c>
       <c r="G7">
         <f>MATCH(A7, Sheet3!A$2:A$264,0)</f>
@@ -10794,14 +10760,14 @@
         <v>472</v>
       </c>
       <c r="C8" t="e">
-        <f>MATCH(A8, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A8, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E8" t="s">
         <v>1105</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1106</v>
       </c>
       <c r="G8">
         <f>MATCH(A8, Sheet3!A$2:A$264,0)</f>
@@ -10816,14 +10782,14 @@
         <v>578</v>
       </c>
       <c r="C9" t="e">
-        <f>MATCH(A9, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A9, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G9">
         <f>MATCH(A9, Sheet3!A$2:A$264,0)</f>
@@ -10838,14 +10804,14 @@
         <v>495</v>
       </c>
       <c r="C10" t="e">
-        <f>MATCH(A10, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A10, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E10" t="s">
         <v>1094</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1095</v>
       </c>
       <c r="G10">
         <f>MATCH(A10, Sheet3!A$2:A$264,0)</f>
@@ -10860,14 +10826,14 @@
         <v>430</v>
       </c>
       <c r="C11" t="e">
-        <f>MATCH(A11, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A11, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E11" t="s">
         <v>1092</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1093</v>
       </c>
       <c r="G11">
         <f>MATCH(A11, Sheet3!A$2:A$264,0)</f>
@@ -10882,14 +10848,14 @@
         <v>389</v>
       </c>
       <c r="C12" t="e">
-        <f>MATCH(A12, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A12, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E12" t="s">
         <v>1088</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1089</v>
       </c>
       <c r="G12">
         <f>MATCH(A12, Sheet3!A$2:A$264,0)</f>
@@ -10904,14 +10870,14 @@
         <v>385</v>
       </c>
       <c r="C13" t="e">
-        <f>MATCH(A13, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A13, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E13" t="s">
         <v>1103</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1104</v>
       </c>
       <c r="G13">
         <f>MATCH(A13, Sheet3!A$2:A$264,0)</f>
@@ -10926,14 +10892,14 @@
         <v>362</v>
       </c>
       <c r="C14" t="e">
-        <f>MATCH(A14, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A14, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E14" t="s">
         <v>1086</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1087</v>
       </c>
       <c r="G14">
         <f>MATCH(A14, Sheet3!A$2:A$264,0)</f>
@@ -10948,14 +10914,14 @@
         <v>584</v>
       </c>
       <c r="C15" t="e">
-        <f>MATCH(A15, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A15, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E15" t="s">
         <v>1078</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1079</v>
       </c>
       <c r="G15">
         <f>MATCH(A15, Sheet3!A$2:A$264,0)</f>
@@ -10970,14 +10936,14 @@
         <v>318</v>
       </c>
       <c r="C16" t="e">
-        <f>MATCH(A16, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A16, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E16" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G16">
         <f>MATCH(A16, Sheet3!A$2:A$264,0)</f>
@@ -10992,14 +10958,14 @@
         <v>291</v>
       </c>
       <c r="C17" t="e">
-        <f>MATCH(A17, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A17, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D17" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G17">
         <f>MATCH(A17, Sheet3!A$2:A$264,0)</f>
@@ -11014,14 +10980,14 @@
         <v>441</v>
       </c>
       <c r="C18" t="e">
-        <f>MATCH(A18, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A18, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D18" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G18">
         <f>MATCH(A18, Sheet3!A$2:A$264,0)</f>
@@ -11036,7 +11002,7 @@
         <v>255</v>
       </c>
       <c r="C19" t="e">
-        <f>MATCH(A19, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A19, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D19" t="s">
@@ -11054,7 +11020,7 @@
         <v>253</v>
       </c>
       <c r="C20" t="e">
-        <f>MATCH(A20, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A20, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D20" t="s">
@@ -11072,7 +11038,7 @@
         <v>233</v>
       </c>
       <c r="C21" t="e">
-        <f>MATCH(A21, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A21, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D21" t="s">
@@ -11090,14 +11056,14 @@
         <v>586</v>
       </c>
       <c r="C22" t="e">
-        <f>MATCH(A22, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A22, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D22" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E22" t="s">
         <v>1101</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1102</v>
       </c>
       <c r="G22">
         <f>MATCH(A22, Sheet3!A$2:A$264,0)</f>
@@ -11112,14 +11078,14 @@
         <v>501</v>
       </c>
       <c r="C23" t="e">
-        <f>MATCH(A23, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A23, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D23" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E23" t="s">
         <v>1096</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1097</v>
       </c>
       <c r="G23">
         <f>MATCH(A23, Sheet3!A$2:A$264,0)</f>
@@ -11134,7 +11100,7 @@
         <v>221</v>
       </c>
       <c r="C24" t="e">
-        <f>MATCH(A24, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A24, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D24" t="s">
@@ -11149,7 +11115,7 @@
         <v>224</v>
       </c>
       <c r="C25" t="e">
-        <f>MATCH(A25, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A25, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D25" t="s">
@@ -11164,7 +11130,7 @@
         <v>226</v>
       </c>
       <c r="C26" t="e">
-        <f>MATCH(A26, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A26, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D26" t="s">
@@ -11179,7 +11145,7 @@
         <v>229</v>
       </c>
       <c r="C27" t="e">
-        <f>MATCH(A27, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A27, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D27" t="s">
@@ -11194,7 +11160,7 @@
         <v>231</v>
       </c>
       <c r="C28" t="e">
-        <f>MATCH(A28, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A28, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D28" t="s">
@@ -11209,7 +11175,7 @@
         <v>235</v>
       </c>
       <c r="C29" t="e">
-        <f>MATCH(A29, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A29, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D29" t="s">
@@ -11224,7 +11190,7 @@
         <v>237</v>
       </c>
       <c r="C30" t="e">
-        <f>MATCH(A30, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A30, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D30" t="s">
@@ -11239,7 +11205,7 @@
         <v>240</v>
       </c>
       <c r="C31" t="e">
-        <f>MATCH(A31, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A31, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D31" t="s">
@@ -11254,7 +11220,7 @@
         <v>242</v>
       </c>
       <c r="C32" t="e">
-        <f>MATCH(A32, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A32, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D32" t="s">
@@ -11269,7 +11235,7 @@
         <v>244</v>
       </c>
       <c r="C33" t="e">
-        <f>MATCH(A33, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A33, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D33" t="s">
@@ -11284,7 +11250,7 @@
         <v>247</v>
       </c>
       <c r="C34" t="e">
-        <f>MATCH(A34, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A34, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D34" t="s">
@@ -11299,7 +11265,7 @@
         <v>251</v>
       </c>
       <c r="C35" t="e">
-        <f>MATCH(A35, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A35, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D35" t="s">
@@ -11314,7 +11280,7 @@
         <v>257</v>
       </c>
       <c r="C36" t="e">
-        <f>MATCH(A36, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A36, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D36" t="s">
@@ -11329,7 +11295,7 @@
         <v>261</v>
       </c>
       <c r="C37" t="e">
-        <f>MATCH(A37, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A37, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D37" t="s">
@@ -11344,7 +11310,7 @@
         <v>264</v>
       </c>
       <c r="C38" t="e">
-        <f>MATCH(A38, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A38, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D38" t="str">
@@ -11364,11 +11330,11 @@
         <v>266</v>
       </c>
       <c r="C39" t="e">
-        <f>MATCH(A39, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A39, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D39" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G39" t="e">
         <f>MATCH(A39, Sheet3!A$2:A$264,0)</f>
@@ -11383,7 +11349,7 @@
         <v>268</v>
       </c>
       <c r="C40" t="e">
-        <f>MATCH(A40, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A40, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D40" t="str">
@@ -11403,11 +11369,11 @@
         <v>271</v>
       </c>
       <c r="C41" t="e">
-        <f>MATCH(A41, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A41, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D41" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G41">
         <f>MATCH(A41, Sheet3!A$2:A$264,0)</f>
@@ -11422,7 +11388,7 @@
         <v>273</v>
       </c>
       <c r="C42" t="e">
-        <f>MATCH(A42, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A42, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D42" t="str">
@@ -11442,11 +11408,11 @@
         <v>278</v>
       </c>
       <c r="C43" t="e">
-        <f>MATCH(A43, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A43, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D43" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G43" t="e">
         <f>MATCH(A43, Sheet3!A$2:A$264,0)</f>
@@ -11461,7 +11427,7 @@
         <v>280</v>
       </c>
       <c r="C44" t="e">
-        <f>MATCH(A44, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A44, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D44" t="str">
@@ -11481,7 +11447,7 @@
         <v>283</v>
       </c>
       <c r="C45" t="e">
-        <f>MATCH(A45, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A45, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D45" t="str">
@@ -11501,11 +11467,11 @@
         <v>286</v>
       </c>
       <c r="C46" t="e">
-        <f>MATCH(A46, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A46, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D46" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G46">
         <f>MATCH(A46, Sheet3!A$2:A$264,0)</f>
@@ -11520,11 +11486,11 @@
         <v>288</v>
       </c>
       <c r="C47" t="e">
-        <f>MATCH(A47, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A47, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D47" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G47" t="e">
         <f>MATCH(A47, Sheet3!A$2:A$264,0)</f>
@@ -11539,11 +11505,11 @@
         <v>293</v>
       </c>
       <c r="C48" t="e">
-        <f>MATCH(A48, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A48, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D48" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G48">
         <f>MATCH(A48, Sheet3!A$2:A$264,0)</f>
@@ -11558,7 +11524,7 @@
         <v>297</v>
       </c>
       <c r="C49" t="e">
-        <f>MATCH(A49, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A49, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D49" t="str">
@@ -11578,11 +11544,11 @@
         <v>299</v>
       </c>
       <c r="C50" t="e">
-        <f>MATCH(A50, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A50, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D50" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G50">
         <f>MATCH(A50, Sheet3!A$2:A$264,0)</f>
@@ -11597,7 +11563,7 @@
         <v>301</v>
       </c>
       <c r="C51" t="e">
-        <f>MATCH(A51, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A51, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D51" t="str">
@@ -11617,7 +11583,7 @@
         <v>307</v>
       </c>
       <c r="C52" t="e">
-        <f>MATCH(A52, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A52, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D52" t="str">
@@ -11637,7 +11603,7 @@
         <v>309</v>
       </c>
       <c r="C53" t="e">
-        <f>MATCH(A53, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A53, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D53" t="s">
@@ -11656,7 +11622,7 @@
         <v>313</v>
       </c>
       <c r="C54" t="e">
-        <f>MATCH(A54, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A54, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D54" t="str">
@@ -11676,7 +11642,7 @@
         <v>320</v>
       </c>
       <c r="C55" t="e">
-        <f>MATCH(A55, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A55, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D55" t="str">
@@ -11696,11 +11662,11 @@
         <v>324</v>
       </c>
       <c r="C56" t="e">
-        <f>MATCH(A56, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A56, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D56" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G56">
         <f>MATCH(A56, Sheet3!A$2:A$264,0)</f>
@@ -11715,7 +11681,7 @@
         <v>326</v>
       </c>
       <c r="C57" t="e">
-        <f>MATCH(A57, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A57, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D57" t="str">
@@ -11735,7 +11701,7 @@
         <v>328</v>
       </c>
       <c r="C58" t="e">
-        <f>MATCH(A58, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A58, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D58" t="str">
@@ -11755,7 +11721,7 @@
         <v>331</v>
       </c>
       <c r="C59" t="e">
-        <f>MATCH(A59, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A59, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D59" t="str">
@@ -11775,7 +11741,7 @@
         <v>333</v>
       </c>
       <c r="C60" t="e">
-        <f>MATCH(A60, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A60, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D60" t="str">
@@ -11795,7 +11761,7 @@
         <v>335</v>
       </c>
       <c r="C61" t="e">
-        <f>MATCH(A61, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A61, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D61" t="str">
@@ -11815,7 +11781,7 @@
         <v>337</v>
       </c>
       <c r="C62" t="e">
-        <f>MATCH(A62, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A62, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D62" t="str">
@@ -11835,7 +11801,7 @@
         <v>341</v>
       </c>
       <c r="C63" t="e">
-        <f>MATCH(A63, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A63, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D63" t="str">
@@ -11855,7 +11821,7 @@
         <v>344</v>
       </c>
       <c r="C64" t="e">
-        <f>MATCH(A64, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A64, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D64" t="str">
@@ -11875,7 +11841,7 @@
         <v>346</v>
       </c>
       <c r="C65" t="e">
-        <f>MATCH(A65, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A65, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D65" t="str">
@@ -11895,7 +11861,7 @@
         <v>348</v>
       </c>
       <c r="C66" t="e">
-        <f>MATCH(A66, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A66, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D66" t="str">
@@ -11915,11 +11881,11 @@
         <v>351</v>
       </c>
       <c r="C67" t="e">
-        <f>MATCH(A67, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A67, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D67" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G67">
         <f>MATCH(A67, Sheet3!A$2:A$264,0)</f>
@@ -11934,7 +11900,7 @@
         <v>353</v>
       </c>
       <c r="C68" t="e">
-        <f>MATCH(A68, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A68, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D68" t="str">
@@ -11954,7 +11920,7 @@
         <v>355</v>
       </c>
       <c r="C69" t="e">
-        <f>MATCH(A69, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A69, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D69" t="str">
@@ -11974,7 +11940,7 @@
         <v>357</v>
       </c>
       <c r="C70" t="e">
-        <f>MATCH(A70, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A70, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D70" t="str">
@@ -11994,7 +11960,7 @@
         <v>371</v>
       </c>
       <c r="C71" t="e">
-        <f>MATCH(A71, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A71, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D71" t="str">
@@ -12014,11 +11980,11 @@
         <v>378</v>
       </c>
       <c r="C72" t="e">
-        <f>MATCH(A72, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A72, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D72" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G72">
         <f>MATCH(A72, Sheet3!A$2:A$264,0)</f>
@@ -12033,7 +11999,7 @@
         <v>383</v>
       </c>
       <c r="C73" t="e">
-        <f>MATCH(A73, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A73, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D73" t="s">
@@ -12052,7 +12018,7 @@
         <v>387</v>
       </c>
       <c r="C74" t="e">
-        <f>MATCH(A74, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A74, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D74" t="str">
@@ -12072,7 +12038,7 @@
         <v>397</v>
       </c>
       <c r="C75" t="e">
-        <f>MATCH(A75, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A75, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D75" t="str">
@@ -12092,7 +12058,7 @@
         <v>400</v>
       </c>
       <c r="C76" t="e">
-        <f>MATCH(A76, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A76, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D76" t="str">
@@ -12112,11 +12078,11 @@
         <v>403</v>
       </c>
       <c r="C77" t="e">
-        <f>MATCH(A77, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A77, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D77" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G77">
         <f>MATCH(A77, Sheet3!A$2:A$264,0)</f>
@@ -12131,7 +12097,7 @@
         <v>405</v>
       </c>
       <c r="C78" t="e">
-        <f>MATCH(A78, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A78, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D78" t="str">
@@ -12151,7 +12117,7 @@
         <v>407</v>
       </c>
       <c r="C79" t="e">
-        <f>MATCH(A79, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A79, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D79" t="str">
@@ -12171,7 +12137,7 @@
         <v>410</v>
       </c>
       <c r="C80" t="e">
-        <f>MATCH(A80, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A80, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D80" t="str">
@@ -12191,7 +12157,7 @@
         <v>413</v>
       </c>
       <c r="C81" t="e">
-        <f>MATCH(A81, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A81, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D81" t="str">
@@ -12211,7 +12177,7 @@
         <v>416</v>
       </c>
       <c r="C82" t="e">
-        <f>MATCH(A82, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A82, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D82" t="str">
@@ -12231,7 +12197,7 @@
         <v>418</v>
       </c>
       <c r="C83" t="e">
-        <f>MATCH(A83, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A83, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D83" t="str">
@@ -12251,7 +12217,7 @@
         <v>421</v>
       </c>
       <c r="C84" t="e">
-        <f>MATCH(A84, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A84, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D84" t="str">
@@ -12271,7 +12237,7 @@
         <v>423</v>
       </c>
       <c r="C85" t="e">
-        <f>MATCH(A85, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A85, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D85" t="str">
@@ -12291,7 +12257,7 @@
         <v>426</v>
       </c>
       <c r="C86" t="e">
-        <f>MATCH(A86, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A86, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D86" t="str">
@@ -12311,7 +12277,7 @@
         <v>428</v>
       </c>
       <c r="C87" t="e">
-        <f>MATCH(A87, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A87, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D87" t="str">
@@ -12331,7 +12297,7 @@
         <v>432</v>
       </c>
       <c r="C88" t="e">
-        <f>MATCH(A88, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A88, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D88" t="str">
@@ -12351,7 +12317,7 @@
         <v>434</v>
       </c>
       <c r="C89" t="e">
-        <f>MATCH(A89, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A89, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D89" t="str">
@@ -12371,7 +12337,7 @@
         <v>436</v>
       </c>
       <c r="C90" t="e">
-        <f>MATCH(A90, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A90, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D90" t="str">
@@ -12391,7 +12357,7 @@
         <v>439</v>
       </c>
       <c r="C91" t="e">
-        <f>MATCH(A91, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A91, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D91" t="str">
@@ -12411,7 +12377,7 @@
         <v>444</v>
       </c>
       <c r="C92" t="e">
-        <f>MATCH(A92, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A92, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D92" t="str">
@@ -12431,7 +12397,7 @@
         <v>448</v>
       </c>
       <c r="C93" t="e">
-        <f>MATCH(A93, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A93, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D93" t="s">
@@ -12450,7 +12416,7 @@
         <v>450</v>
       </c>
       <c r="C94" t="e">
-        <f>MATCH(A94, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A94, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D94" t="e">
@@ -12470,7 +12436,7 @@
         <v>452</v>
       </c>
       <c r="C95" t="e">
-        <f>MATCH(A95, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A95, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D95" t="str">
@@ -12490,7 +12456,7 @@
         <v>458</v>
       </c>
       <c r="C96" t="e">
-        <f>MATCH(A96, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A96, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D96" t="str">
@@ -12510,7 +12476,7 @@
         <v>462</v>
       </c>
       <c r="C97" t="e">
-        <f>MATCH(A97, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A97, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D97" t="str">
@@ -12530,7 +12496,7 @@
         <v>467</v>
       </c>
       <c r="C98" t="e">
-        <f>MATCH(A98, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A98, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D98" t="str">
@@ -12550,11 +12516,11 @@
         <v>478</v>
       </c>
       <c r="C99" t="e">
-        <f>MATCH(A99, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A99, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G99">
         <f>MATCH(A99, Sheet3!A$2:A$264,0)</f>
@@ -12569,7 +12535,7 @@
         <v>481</v>
       </c>
       <c r="C100" t="e">
-        <f>MATCH(A100, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A100, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D100" t="str">
@@ -12589,7 +12555,7 @@
         <v>483</v>
       </c>
       <c r="C101" t="e">
-        <f>MATCH(A101, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A101, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D101" t="str">
@@ -12609,7 +12575,7 @@
         <v>489</v>
       </c>
       <c r="C102" t="e">
-        <f>MATCH(A102, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A102, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D102" t="str">
@@ -12629,11 +12595,11 @@
         <v>491</v>
       </c>
       <c r="C103" t="e">
-        <f>MATCH(A103, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A103, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D103" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G103">
         <f>MATCH(A103, Sheet3!A$2:A$264,0)</f>
@@ -12648,7 +12614,7 @@
         <v>493</v>
       </c>
       <c r="C104" t="e">
-        <f>MATCH(A104, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A104, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D104" t="str">
@@ -12668,7 +12634,7 @@
         <v>497</v>
       </c>
       <c r="C105" t="e">
-        <f>MATCH(A105, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A105, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D105" t="str">
@@ -12688,7 +12654,7 @@
         <v>499</v>
       </c>
       <c r="C106" t="e">
-        <f>MATCH(A106, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A106, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D106" t="str">
@@ -12708,7 +12674,7 @@
         <v>507</v>
       </c>
       <c r="C107" t="e">
-        <f>MATCH(A107, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A107, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D107" t="str">
@@ -12728,11 +12694,11 @@
         <v>509</v>
       </c>
       <c r="C108" t="e">
-        <f>MATCH(A108, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A108, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D108" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G108">
         <f>MATCH(A108, Sheet3!A$2:A$264,0)</f>
@@ -12747,7 +12713,7 @@
         <v>514</v>
       </c>
       <c r="C109" t="e">
-        <f>MATCH(A109, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A109, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D109" t="str">
@@ -12767,7 +12733,7 @@
         <v>516</v>
       </c>
       <c r="C110" t="e">
-        <f>MATCH(A110, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A110, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D110" t="str">
@@ -12787,7 +12753,7 @@
         <v>519</v>
       </c>
       <c r="C111" t="e">
-        <f>MATCH(A111, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A111, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D111" t="s">
@@ -12806,11 +12772,11 @@
         <v>524</v>
       </c>
       <c r="C112" t="e">
-        <f>MATCH(A112, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A112, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D112" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G112">
         <f>MATCH(A112, Sheet3!A$2:A$264,0)</f>
@@ -12825,7 +12791,7 @@
         <v>530</v>
       </c>
       <c r="C113" t="e">
-        <f>MATCH(A113, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A113, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D113" t="str">
@@ -12845,7 +12811,7 @@
         <v>532</v>
       </c>
       <c r="C114" t="e">
-        <f>MATCH(A114, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A114, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D114" t="str">
@@ -12865,7 +12831,7 @@
         <v>535</v>
       </c>
       <c r="C115" t="e">
-        <f>MATCH(A115, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A115, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D115" t="str">
@@ -12885,7 +12851,7 @@
         <v>537</v>
       </c>
       <c r="C116" t="e">
-        <f>MATCH(A116, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A116, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D116" t="e">
@@ -12905,7 +12871,7 @@
         <v>539</v>
       </c>
       <c r="C117" t="e">
-        <f>MATCH(A117, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A117, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D117" t="s">
@@ -12924,7 +12890,7 @@
         <v>544</v>
       </c>
       <c r="C118" t="e">
-        <f>MATCH(A118, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A118, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D118" s="9" t="s">
@@ -12943,7 +12909,7 @@
         <v>546</v>
       </c>
       <c r="C119" t="e">
-        <f>MATCH(A119, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A119, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D119" t="str">
@@ -12963,7 +12929,7 @@
         <v>548</v>
       </c>
       <c r="C120" t="e">
-        <f>MATCH(A120, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A120, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D120" t="str">
@@ -12983,7 +12949,7 @@
         <v>551</v>
       </c>
       <c r="C121" t="e">
-        <f>MATCH(A121, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A121, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D121" t="str">
@@ -13003,7 +12969,7 @@
         <v>553</v>
       </c>
       <c r="C122" t="e">
-        <f>MATCH(A122, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A122, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D122" t="str">
@@ -13023,7 +12989,7 @@
         <v>555</v>
       </c>
       <c r="C123" t="e">
-        <f>MATCH(A123, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A123, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D123" t="str">
@@ -13043,11 +13009,11 @@
         <v>562</v>
       </c>
       <c r="C124" t="e">
-        <f>MATCH(A124, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A124, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D124" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G124">
         <f>MATCH(A124, Sheet3!A$2:A$264,0)</f>
@@ -13062,7 +13028,7 @@
         <v>564</v>
       </c>
       <c r="C125" t="e">
-        <f>MATCH(A125, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A125, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D125" t="str">
@@ -13082,7 +13048,7 @@
         <v>566</v>
       </c>
       <c r="C126" t="e">
-        <f>MATCH(A126, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A126, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D126" t="e">
@@ -13102,7 +13068,7 @@
         <v>568</v>
       </c>
       <c r="C127" t="e">
-        <f>MATCH(A127, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A127, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D127" t="str">
@@ -13122,7 +13088,7 @@
         <v>572</v>
       </c>
       <c r="C128" t="e">
-        <f>MATCH(A128, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A128, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D128" t="e">
@@ -13142,7 +13108,7 @@
         <v>580</v>
       </c>
       <c r="C129" t="e">
-        <f>MATCH(A129, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A129, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D129" t="e">
@@ -13162,7 +13128,7 @@
         <v>581</v>
       </c>
       <c r="C130" t="e">
-        <f>MATCH(A130, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A130, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D130" t="str">
@@ -13182,7 +13148,7 @@
         <v>588</v>
       </c>
       <c r="C131" t="e">
-        <f>MATCH(A131, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A131, Sheet1!A$2:A$125,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D131" t="str">
@@ -13202,8 +13168,8 @@
         <v>505</v>
       </c>
       <c r="C132">
-        <f>MATCH(A132, Sheet1!A$2:A$126,0)</f>
-        <v>125</v>
+        <f>MATCH(A132, Sheet1!A$2:A$125,0)</f>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18" thickBot="1">
@@ -13214,8 +13180,8 @@
         <v>311</v>
       </c>
       <c r="C133">
-        <f>MATCH(A133, Sheet1!A$2:A$126,0)</f>
-        <v>124</v>
+        <f>MATCH(A133, Sheet1!A$2:A$125,0)</f>
+        <v>123</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="18" thickBot="1">
@@ -13226,8 +13192,8 @@
         <v>393</v>
       </c>
       <c r="C134">
-        <f>MATCH(A134, Sheet1!A$2:A$126,0)</f>
-        <v>123</v>
+        <f>MATCH(A134, Sheet1!A$2:A$125,0)</f>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18" thickBot="1">
@@ -13238,8 +13204,8 @@
         <v>460</v>
       </c>
       <c r="C135">
-        <f>MATCH(A135, Sheet1!A$2:A$126,0)</f>
-        <v>122</v>
+        <f>MATCH(A135, Sheet1!A$2:A$125,0)</f>
+        <v>121</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="18" thickBot="1">
@@ -13250,8 +13216,8 @@
         <v>528</v>
       </c>
       <c r="C136">
-        <f>MATCH(A136, Sheet1!A$2:A$126,0)</f>
-        <v>120</v>
+        <f>MATCH(A136, Sheet1!A$2:A$125,0)</f>
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="18" thickBot="1">
@@ -13262,8 +13228,8 @@
         <v>359</v>
       </c>
       <c r="C137">
-        <f>MATCH(A137, Sheet1!A$2:A$126,0)</f>
-        <v>116</v>
+        <f>MATCH(A137, Sheet1!A$2:A$125,0)</f>
+        <v>115</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="18" thickBot="1">
@@ -13274,8 +13240,8 @@
         <v>446</v>
       </c>
       <c r="C138">
-        <f>MATCH(A138, Sheet1!A$2:A$126,0)</f>
-        <v>114</v>
+        <f>MATCH(A138, Sheet1!A$2:A$125,0)</f>
+        <v>113</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="18" thickBot="1">
@@ -13286,8 +13252,8 @@
         <v>469</v>
       </c>
       <c r="C139">
-        <f>MATCH(A139, Sheet1!A$2:A$126,0)</f>
-        <v>113</v>
+        <f>MATCH(A139, Sheet1!A$2:A$125,0)</f>
+        <v>112</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="18" thickBot="1">
@@ -13298,8 +13264,8 @@
         <v>590</v>
       </c>
       <c r="C140">
-        <f>MATCH(A140, Sheet1!A$2:A$126,0)</f>
-        <v>112</v>
+        <f>MATCH(A140, Sheet1!A$2:A$125,0)</f>
+        <v>111</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="18" thickBot="1">
@@ -13310,8 +13276,8 @@
         <v>589</v>
       </c>
       <c r="C141">
-        <f>MATCH(A141, Sheet1!A$2:A$126,0)</f>
-        <v>111</v>
+        <f>MATCH(A141, Sheet1!A$2:A$125,0)</f>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="18" thickBot="1">
@@ -13322,8 +13288,8 @@
         <v>582</v>
       </c>
       <c r="C142">
-        <f>MATCH(A142, Sheet1!A$2:A$126,0)</f>
-        <v>109</v>
+        <f>MATCH(A142, Sheet1!A$2:A$125,0)</f>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="18" thickBot="1">
@@ -13334,8 +13300,8 @@
         <v>574</v>
       </c>
       <c r="C143">
-        <f>MATCH(A143, Sheet1!A$2:A$126,0)</f>
-        <v>108</v>
+        <f>MATCH(A143, Sheet1!A$2:A$125,0)</f>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="18" thickBot="1">
@@ -13346,8 +13312,8 @@
         <v>573</v>
       </c>
       <c r="C144">
-        <f>MATCH(A144, Sheet1!A$2:A$126,0)</f>
-        <v>107</v>
+        <f>MATCH(A144, Sheet1!A$2:A$125,0)</f>
+        <v>106</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="18" thickBot="1">
@@ -13358,8 +13324,8 @@
         <v>571</v>
       </c>
       <c r="C145">
-        <f>MATCH(A145, Sheet1!A$2:A$126,0)</f>
-        <v>106</v>
+        <f>MATCH(A145, Sheet1!A$2:A$125,0)</f>
+        <v>105</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="18" thickBot="1">
@@ -13370,8 +13336,8 @@
         <v>569</v>
       </c>
       <c r="C146">
-        <f>MATCH(A146, Sheet1!A$2:A$126,0)</f>
-        <v>105</v>
+        <f>MATCH(A146, Sheet1!A$2:A$125,0)</f>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="18" thickBot="1">
@@ -13382,8 +13348,8 @@
         <v>560</v>
       </c>
       <c r="C147">
-        <f>MATCH(A147, Sheet1!A$2:A$126,0)</f>
-        <v>104</v>
+        <f>MATCH(A147, Sheet1!A$2:A$125,0)</f>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="18" thickBot="1">
@@ -13394,8 +13360,8 @@
         <v>559</v>
       </c>
       <c r="C148">
-        <f>MATCH(A148, Sheet1!A$2:A$126,0)</f>
-        <v>103</v>
+        <f>MATCH(A148, Sheet1!A$2:A$125,0)</f>
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="18" thickBot="1">
@@ -13406,8 +13372,8 @@
         <v>558</v>
       </c>
       <c r="C149">
-        <f>MATCH(A149, Sheet1!A$2:A$126,0)</f>
-        <v>102</v>
+        <f>MATCH(A149, Sheet1!A$2:A$125,0)</f>
+        <v>101</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="18" thickBot="1">
@@ -13418,8 +13384,8 @@
         <v>549</v>
       </c>
       <c r="C150">
-        <f>MATCH(A150, Sheet1!A$2:A$126,0)</f>
-        <v>101</v>
+        <f>MATCH(A150, Sheet1!A$2:A$125,0)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="18" thickBot="1">
@@ -13430,8 +13396,8 @@
         <v>542</v>
       </c>
       <c r="C151">
-        <f>MATCH(A151, Sheet1!A$2:A$126,0)</f>
-        <v>100</v>
+        <f>MATCH(A151, Sheet1!A$2:A$125,0)</f>
+        <v>99</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="18" thickBot="1">
@@ -13442,8 +13408,8 @@
         <v>541</v>
       </c>
       <c r="C152">
-        <f>MATCH(A152, Sheet1!A$2:A$126,0)</f>
-        <v>99</v>
+        <f>MATCH(A152, Sheet1!A$2:A$125,0)</f>
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="18" thickBot="1">
@@ -13454,8 +13420,8 @@
         <v>540</v>
       </c>
       <c r="C153">
-        <f>MATCH(A153, Sheet1!A$2:A$126,0)</f>
-        <v>98</v>
+        <f>MATCH(A153, Sheet1!A$2:A$125,0)</f>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="18" thickBot="1">
@@ -13466,8 +13432,8 @@
         <v>533</v>
       </c>
       <c r="C154">
-        <f>MATCH(A154, Sheet1!A$2:A$126,0)</f>
-        <v>97</v>
+        <f>MATCH(A154, Sheet1!A$2:A$125,0)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="18" thickBot="1">
@@ -13478,8 +13444,8 @@
         <v>3</v>
       </c>
       <c r="C155">
-        <f>MATCH(A155, Sheet1!A$2:A$126,0)</f>
-        <v>96</v>
+        <f>MATCH(A155, Sheet1!A$2:A$125,0)</f>
+        <v>95</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="18" thickBot="1">
@@ -13490,8 +13456,8 @@
         <v>526</v>
       </c>
       <c r="C156">
-        <f>MATCH(A156, Sheet1!A$2:A$126,0)</f>
-        <v>95</v>
+        <f>MATCH(A156, Sheet1!A$2:A$125,0)</f>
+        <v>94</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="18" thickBot="1">
@@ -13502,8 +13468,8 @@
         <v>525</v>
       </c>
       <c r="C157">
-        <f>MATCH(A157, Sheet1!A$2:A$126,0)</f>
-        <v>94</v>
+        <f>MATCH(A157, Sheet1!A$2:A$125,0)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="18" thickBot="1">
@@ -13514,8 +13480,8 @@
         <v>520</v>
       </c>
       <c r="C158">
-        <f>MATCH(A158, Sheet1!A$2:A$126,0)</f>
-        <v>93</v>
+        <f>MATCH(A158, Sheet1!A$2:A$125,0)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="18" thickBot="1">
@@ -13526,8 +13492,8 @@
         <v>517</v>
       </c>
       <c r="C159">
-        <f>MATCH(A159, Sheet1!A$2:A$126,0)</f>
-        <v>92</v>
+        <f>MATCH(A159, Sheet1!A$2:A$125,0)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="18" thickBot="1">
@@ -13538,8 +13504,8 @@
         <v>512</v>
       </c>
       <c r="C160">
-        <f>MATCH(A160, Sheet1!A$2:A$126,0)</f>
-        <v>91</v>
+        <f>MATCH(A160, Sheet1!A$2:A$125,0)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="18" thickBot="1">
@@ -13550,8 +13516,8 @@
         <v>511</v>
       </c>
       <c r="C161">
-        <f>MATCH(A161, Sheet1!A$2:A$126,0)</f>
-        <v>90</v>
+        <f>MATCH(A161, Sheet1!A$2:A$125,0)</f>
+        <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="18" thickBot="1">
@@ -13562,7 +13528,7 @@
         <v>510</v>
       </c>
       <c r="C162">
-        <f>MATCH(A162, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A162, Sheet1!A$2:A$125,0)</f>
         <v>87</v>
       </c>
     </row>
@@ -13574,7 +13540,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <f>MATCH(A163, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A163, Sheet1!A$2:A$125,0)</f>
         <v>86</v>
       </c>
     </row>
@@ -13586,7 +13552,7 @@
         <v>487</v>
       </c>
       <c r="C164">
-        <f>MATCH(A164, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A164, Sheet1!A$2:A$125,0)</f>
         <v>85</v>
       </c>
     </row>
@@ -13598,7 +13564,7 @@
         <v>484</v>
       </c>
       <c r="C165">
-        <f>MATCH(A165, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A165, Sheet1!A$2:A$125,0)</f>
         <v>84</v>
       </c>
     </row>
@@ -13610,7 +13576,7 @@
         <v>4</v>
       </c>
       <c r="C166">
-        <f>MATCH(A166, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A166, Sheet1!A$2:A$125,0)</f>
         <v>83</v>
       </c>
     </row>
@@ -13622,7 +13588,7 @@
         <v>479</v>
       </c>
       <c r="C167">
-        <f>MATCH(A167, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A167, Sheet1!A$2:A$125,0)</f>
         <v>82</v>
       </c>
     </row>
@@ -13634,7 +13600,7 @@
         <v>476</v>
       </c>
       <c r="C168">
-        <f>MATCH(A168, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A168, Sheet1!A$2:A$125,0)</f>
         <v>80</v>
       </c>
     </row>
@@ -13646,7 +13612,7 @@
         <v>474</v>
       </c>
       <c r="C169">
-        <f>MATCH(A169, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A169, Sheet1!A$2:A$125,0)</f>
         <v>79</v>
       </c>
     </row>
@@ -13658,7 +13624,7 @@
         <v>473</v>
       </c>
       <c r="C170">
-        <f>MATCH(A170, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A170, Sheet1!A$2:A$125,0)</f>
         <v>78</v>
       </c>
     </row>
@@ -13670,7 +13636,7 @@
         <v>470</v>
       </c>
       <c r="C171">
-        <f>MATCH(A171, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A171, Sheet1!A$2:A$125,0)</f>
         <v>77</v>
       </c>
     </row>
@@ -13682,7 +13648,7 @@
         <v>465</v>
       </c>
       <c r="C172">
-        <f>MATCH(A172, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A172, Sheet1!A$2:A$125,0)</f>
         <v>76</v>
       </c>
     </row>
@@ -13694,7 +13660,7 @@
         <v>464</v>
       </c>
       <c r="C173">
-        <f>MATCH(A173, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A173, Sheet1!A$2:A$125,0)</f>
         <v>75</v>
       </c>
     </row>
@@ -13706,7 +13672,7 @@
         <v>463</v>
       </c>
       <c r="C174">
-        <f>MATCH(A174, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A174, Sheet1!A$2:A$125,0)</f>
         <v>74</v>
       </c>
     </row>
@@ -13718,7 +13684,7 @@
         <v>456</v>
       </c>
       <c r="C175">
-        <f>MATCH(A175, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A175, Sheet1!A$2:A$125,0)</f>
         <v>73</v>
       </c>
     </row>
@@ -13730,7 +13696,7 @@
         <v>455</v>
       </c>
       <c r="C176">
-        <f>MATCH(A176, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A176, Sheet1!A$2:A$125,0)</f>
         <v>72</v>
       </c>
     </row>
@@ -13742,7 +13708,7 @@
         <v>454</v>
       </c>
       <c r="C177">
-        <f>MATCH(A177, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A177, Sheet1!A$2:A$125,0)</f>
         <v>71</v>
       </c>
     </row>
@@ -13754,7 +13720,7 @@
         <v>453</v>
       </c>
       <c r="C178">
-        <f>MATCH(A178, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A178, Sheet1!A$2:A$125,0)</f>
         <v>70</v>
       </c>
     </row>
@@ -13766,7 +13732,7 @@
         <v>442</v>
       </c>
       <c r="C179">
-        <f>MATCH(A179, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A179, Sheet1!A$2:A$125,0)</f>
         <v>69</v>
       </c>
     </row>
@@ -13778,7 +13744,7 @@
         <v>437</v>
       </c>
       <c r="C180">
-        <f>MATCH(A180, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A180, Sheet1!A$2:A$125,0)</f>
         <v>68</v>
       </c>
     </row>
@@ -13790,7 +13756,7 @@
         <v>424</v>
       </c>
       <c r="C181">
-        <f>MATCH(A181, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A181, Sheet1!A$2:A$125,0)</f>
         <v>67</v>
       </c>
     </row>
@@ -13802,7 +13768,7 @@
         <v>419</v>
       </c>
       <c r="C182">
-        <f>MATCH(A182, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A182, Sheet1!A$2:A$125,0)</f>
         <v>66</v>
       </c>
     </row>
@@ -13814,7 +13780,7 @@
         <v>414</v>
       </c>
       <c r="C183">
-        <f>MATCH(A183, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A183, Sheet1!A$2:A$125,0)</f>
         <v>65</v>
       </c>
     </row>
@@ -13826,7 +13792,7 @@
         <v>411</v>
       </c>
       <c r="C184">
-        <f>MATCH(A184, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A184, Sheet1!A$2:A$125,0)</f>
         <v>64</v>
       </c>
     </row>
@@ -13838,7 +13804,7 @@
         <v>408</v>
       </c>
       <c r="C185">
-        <f>MATCH(A185, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A185, Sheet1!A$2:A$125,0)</f>
         <v>63</v>
       </c>
     </row>
@@ -13850,7 +13816,7 @@
         <v>401</v>
       </c>
       <c r="C186">
-        <f>MATCH(A186, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A186, Sheet1!A$2:A$125,0)</f>
         <v>62</v>
       </c>
     </row>
@@ -13862,7 +13828,7 @@
         <v>398</v>
       </c>
       <c r="C187">
-        <f>MATCH(A187, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A187, Sheet1!A$2:A$125,0)</f>
         <v>61</v>
       </c>
     </row>
@@ -13874,7 +13840,7 @@
         <v>391</v>
       </c>
       <c r="C188">
-        <f>MATCH(A188, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A188, Sheet1!A$2:A$125,0)</f>
         <v>60</v>
       </c>
     </row>
@@ -13886,7 +13852,7 @@
         <v>390</v>
       </c>
       <c r="C189">
-        <f>MATCH(A189, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A189, Sheet1!A$2:A$125,0)</f>
         <v>59</v>
       </c>
     </row>
@@ -13898,7 +13864,7 @@
         <v>381</v>
       </c>
       <c r="C190">
-        <f>MATCH(A190, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A190, Sheet1!A$2:A$125,0)</f>
         <v>58</v>
       </c>
     </row>
@@ -13910,7 +13876,7 @@
         <v>380</v>
       </c>
       <c r="C191">
-        <f>MATCH(A191, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A191, Sheet1!A$2:A$125,0)</f>
         <v>57</v>
       </c>
     </row>
@@ -13922,7 +13888,7 @@
         <v>379</v>
       </c>
       <c r="C192">
-        <f>MATCH(A192, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A192, Sheet1!A$2:A$125,0)</f>
         <v>56</v>
       </c>
     </row>
@@ -13934,7 +13900,7 @@
         <v>376</v>
       </c>
       <c r="C193">
-        <f>MATCH(A193, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A193, Sheet1!A$2:A$125,0)</f>
         <v>55</v>
       </c>
     </row>
@@ -13946,7 +13912,7 @@
         <v>375</v>
       </c>
       <c r="C194">
-        <f>MATCH(A194, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A194, Sheet1!A$2:A$125,0)</f>
         <v>54</v>
       </c>
     </row>
@@ -13958,7 +13924,7 @@
         <v>374</v>
       </c>
       <c r="C195">
-        <f>MATCH(A195, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A195, Sheet1!A$2:A$125,0)</f>
         <v>53</v>
       </c>
     </row>
@@ -13970,7 +13936,7 @@
         <v>373</v>
       </c>
       <c r="C196">
-        <f>MATCH(A196, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A196, Sheet1!A$2:A$125,0)</f>
         <v>52</v>
       </c>
     </row>
@@ -13982,7 +13948,7 @@
         <v>372</v>
       </c>
       <c r="C197">
-        <f>MATCH(A197, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A197, Sheet1!A$2:A$125,0)</f>
         <v>51</v>
       </c>
     </row>
@@ -13994,7 +13960,7 @@
         <v>369</v>
       </c>
       <c r="C198">
-        <f>MATCH(A198, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A198, Sheet1!A$2:A$125,0)</f>
         <v>50</v>
       </c>
     </row>
@@ -14006,7 +13972,7 @@
         <v>368</v>
       </c>
       <c r="C199">
-        <f>MATCH(A199, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A199, Sheet1!A$2:A$125,0)</f>
         <v>49</v>
       </c>
     </row>
@@ -14018,7 +13984,7 @@
         <v>367</v>
       </c>
       <c r="C200">
-        <f>MATCH(A200, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A200, Sheet1!A$2:A$125,0)</f>
         <v>48</v>
       </c>
     </row>
@@ -14030,7 +13996,7 @@
         <v>366</v>
       </c>
       <c r="C201">
-        <f>MATCH(A201, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A201, Sheet1!A$2:A$125,0)</f>
         <v>47</v>
       </c>
     </row>
@@ -14042,7 +14008,7 @@
         <v>365</v>
       </c>
       <c r="C202">
-        <f>MATCH(A202, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A202, Sheet1!A$2:A$125,0)</f>
         <v>46</v>
       </c>
     </row>
@@ -14054,7 +14020,7 @@
         <v>364</v>
       </c>
       <c r="C203">
-        <f>MATCH(A203, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A203, Sheet1!A$2:A$125,0)</f>
         <v>45</v>
       </c>
     </row>
@@ -14066,7 +14032,7 @@
         <v>363</v>
       </c>
       <c r="C204">
-        <f>MATCH(A204, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A204, Sheet1!A$2:A$125,0)</f>
         <v>44</v>
       </c>
     </row>
@@ -14078,7 +14044,7 @@
         <v>360</v>
       </c>
       <c r="C205">
-        <f>MATCH(A205, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A205, Sheet1!A$2:A$125,0)</f>
         <v>43</v>
       </c>
     </row>
@@ -14090,7 +14056,7 @@
         <v>349</v>
       </c>
       <c r="C206">
-        <f>MATCH(A206, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A206, Sheet1!A$2:A$125,0)</f>
         <v>41</v>
       </c>
     </row>
@@ -14102,7 +14068,7 @@
         <v>342</v>
       </c>
       <c r="C207">
-        <f>MATCH(A207, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A207, Sheet1!A$2:A$125,0)</f>
         <v>40</v>
       </c>
     </row>
@@ -14114,7 +14080,7 @@
         <v>339</v>
       </c>
       <c r="C208">
-        <f>MATCH(A208, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A208, Sheet1!A$2:A$125,0)</f>
         <v>39</v>
       </c>
     </row>
@@ -14126,7 +14092,7 @@
         <v>338</v>
       </c>
       <c r="C209">
-        <f>MATCH(A209, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A209, Sheet1!A$2:A$125,0)</f>
         <v>38</v>
       </c>
     </row>
@@ -14138,7 +14104,7 @@
         <v>2</v>
       </c>
       <c r="C210">
-        <f>MATCH(A210, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A210, Sheet1!A$2:A$125,0)</f>
         <v>37</v>
       </c>
     </row>
@@ -14150,7 +14116,7 @@
         <v>329</v>
       </c>
       <c r="C211">
-        <f>MATCH(A211, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A211, Sheet1!A$2:A$125,0)</f>
         <v>36</v>
       </c>
     </row>
@@ -14162,7 +14128,7 @@
         <v>322</v>
       </c>
       <c r="C212">
-        <f>MATCH(A212, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A212, Sheet1!A$2:A$125,0)</f>
         <v>35</v>
       </c>
     </row>
@@ -14174,7 +14140,7 @@
         <v>321</v>
       </c>
       <c r="C213">
-        <f>MATCH(A213, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A213, Sheet1!A$2:A$125,0)</f>
         <v>34</v>
       </c>
     </row>
@@ -14186,7 +14152,7 @@
         <v>316</v>
       </c>
       <c r="C214">
-        <f>MATCH(A214, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A214, Sheet1!A$2:A$125,0)</f>
         <v>32</v>
       </c>
     </row>
@@ -14198,7 +14164,7 @@
         <v>315</v>
       </c>
       <c r="C215">
-        <f>MATCH(A215, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A215, Sheet1!A$2:A$125,0)</f>
         <v>31</v>
       </c>
     </row>
@@ -14210,7 +14176,7 @@
         <v>314</v>
       </c>
       <c r="C216">
-        <f>MATCH(A216, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A216, Sheet1!A$2:A$125,0)</f>
         <v>30</v>
       </c>
     </row>
@@ -14222,7 +14188,7 @@
         <v>305</v>
       </c>
       <c r="C217">
-        <f>MATCH(A217, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A217, Sheet1!A$2:A$125,0)</f>
         <v>29</v>
       </c>
     </row>
@@ -14234,7 +14200,7 @@
         <v>304</v>
       </c>
       <c r="C218">
-        <f>MATCH(A218, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A218, Sheet1!A$2:A$125,0)</f>
         <v>28</v>
       </c>
     </row>
@@ -14246,7 +14212,7 @@
         <v>303</v>
       </c>
       <c r="C219">
-        <f>MATCH(A219, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A219, Sheet1!A$2:A$125,0)</f>
         <v>27</v>
       </c>
     </row>
@@ -14258,7 +14224,7 @@
         <v>295</v>
       </c>
       <c r="C220">
-        <f>MATCH(A220, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A220, Sheet1!A$2:A$125,0)</f>
         <v>26</v>
       </c>
     </row>
@@ -14270,7 +14236,7 @@
         <v>294</v>
       </c>
       <c r="C221">
-        <f>MATCH(A221, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A221, Sheet1!A$2:A$125,0)</f>
         <v>25</v>
       </c>
     </row>
@@ -14282,7 +14248,7 @@
         <v>289</v>
       </c>
       <c r="C222">
-        <f>MATCH(A222, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A222, Sheet1!A$2:A$125,0)</f>
         <v>24</v>
       </c>
     </row>
@@ -14294,7 +14260,7 @@
         <v>284</v>
       </c>
       <c r="C223">
-        <f>MATCH(A223, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A223, Sheet1!A$2:A$125,0)</f>
         <v>23</v>
       </c>
     </row>
@@ -14306,7 +14272,7 @@
         <v>282</v>
       </c>
       <c r="C224">
-        <f>MATCH(A224, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A224, Sheet1!A$2:A$125,0)</f>
         <v>22</v>
       </c>
     </row>
@@ -14318,7 +14284,7 @@
         <v>281</v>
       </c>
       <c r="C225">
-        <f>MATCH(A225, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A225, Sheet1!A$2:A$125,0)</f>
         <v>21</v>
       </c>
     </row>
@@ -14330,7 +14296,7 @@
         <v>276</v>
       </c>
       <c r="C226">
-        <f>MATCH(A226, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A226, Sheet1!A$2:A$125,0)</f>
         <v>20</v>
       </c>
     </row>
@@ -14342,7 +14308,7 @@
         <v>275</v>
       </c>
       <c r="C227">
-        <f>MATCH(A227, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A227, Sheet1!A$2:A$125,0)</f>
         <v>19</v>
       </c>
     </row>
@@ -14354,7 +14320,7 @@
         <v>274</v>
       </c>
       <c r="C228">
-        <f>MATCH(A228, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A228, Sheet1!A$2:A$125,0)</f>
         <v>18</v>
       </c>
     </row>
@@ -14366,7 +14332,7 @@
         <v>269</v>
       </c>
       <c r="C229">
-        <f>MATCH(A229, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A229, Sheet1!A$2:A$125,0)</f>
         <v>17</v>
       </c>
     </row>
@@ -14378,7 +14344,7 @@
         <v>262</v>
       </c>
       <c r="C230">
-        <f>MATCH(A230, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A230, Sheet1!A$2:A$125,0)</f>
         <v>14</v>
       </c>
     </row>
@@ -14390,7 +14356,7 @@
         <v>259</v>
       </c>
       <c r="C231">
-        <f>MATCH(A231, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A231, Sheet1!A$2:A$125,0)</f>
         <v>12</v>
       </c>
     </row>
@@ -14402,7 +14368,7 @@
         <v>258</v>
       </c>
       <c r="C232">
-        <f>MATCH(A232, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A232, Sheet1!A$2:A$125,0)</f>
         <v>11</v>
       </c>
     </row>
@@ -14414,7 +14380,7 @@
         <v>249</v>
       </c>
       <c r="C233">
-        <f>MATCH(A233, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A233, Sheet1!A$2:A$125,0)</f>
         <v>10</v>
       </c>
     </row>
@@ -14426,7 +14392,7 @@
         <v>248</v>
       </c>
       <c r="C234">
-        <f>MATCH(A234, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A234, Sheet1!A$2:A$125,0)</f>
         <v>9</v>
       </c>
     </row>
@@ -14438,7 +14404,7 @@
         <v>245</v>
       </c>
       <c r="C235">
-        <f>MATCH(A235, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A235, Sheet1!A$2:A$125,0)</f>
         <v>8</v>
       </c>
     </row>
@@ -14450,7 +14416,7 @@
         <v>238</v>
       </c>
       <c r="C236">
-        <f>MATCH(A236, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A236, Sheet1!A$2:A$125,0)</f>
         <v>6</v>
       </c>
     </row>
@@ -14462,7 +14428,7 @@
         <v>239</v>
       </c>
       <c r="C237">
-        <f>MATCH(A237, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A237, Sheet1!A$2:A$125,0)</f>
         <v>5</v>
       </c>
     </row>
@@ -14474,7 +14440,7 @@
         <v>0</v>
       </c>
       <c r="C238">
-        <f>MATCH(A238, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A238, Sheet1!A$2:A$125,0)</f>
         <v>4</v>
       </c>
     </row>
@@ -14486,7 +14452,7 @@
         <v>227</v>
       </c>
       <c r="C239">
-        <f>MATCH(A239, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A239, Sheet1!A$2:A$125,0)</f>
         <v>3</v>
       </c>
     </row>
@@ -14498,7 +14464,7 @@
         <v>222</v>
       </c>
       <c r="C240">
-        <f>MATCH(A240, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A240, Sheet1!A$2:A$125,0)</f>
         <v>2</v>
       </c>
     </row>
@@ -14510,7 +14476,7 @@
         <v>219</v>
       </c>
       <c r="C241">
-        <f>MATCH(A241, Sheet1!A$2:A$126,0)</f>
+        <f>MATCH(A241, Sheet1!A$2:A$125,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -14776,24 +14742,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17">
       <c r="A1" s="14" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17">
       <c r="A2" s="11" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17">
@@ -14804,18 +14770,18 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17">
       <c r="A4" s="11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
@@ -14826,7 +14792,7 @@
         <v>623</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17">
@@ -14837,7 +14803,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
@@ -14848,7 +14814,7 @@
         <v>624</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17">
@@ -14859,7 +14825,7 @@
         <v>625</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17">
@@ -14870,7 +14836,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17">
@@ -14881,18 +14847,18 @@
         <v>626</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17">
       <c r="A11" s="12" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>627</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17">
@@ -14900,10 +14866,10 @@
         <v>232</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
@@ -14911,10 +14877,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17">
@@ -14925,7 +14891,7 @@
         <v>630</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17">
@@ -14936,7 +14902,7 @@
         <v>631</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17">
@@ -14947,7 +14913,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17">
@@ -14958,7 +14924,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17">
@@ -14966,21 +14932,21 @@
         <v>214</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17">
       <c r="A19" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>633</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17">
@@ -14991,7 +14957,7 @@
         <v>634</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17">
@@ -15002,7 +14968,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17">
@@ -15013,7 +14979,7 @@
         <v>635</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17">
@@ -15024,7 +14990,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17">
@@ -15035,7 +15001,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17">
@@ -15046,7 +15012,7 @@
         <v>636</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17">
@@ -15054,10 +15020,10 @@
         <v>252</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17">
@@ -15065,10 +15031,10 @@
         <v>254</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17">
@@ -15084,24 +15050,24 @@
     </row>
     <row r="29" spans="1:3" ht="17">
       <c r="A29" s="11" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17">
       <c r="A30" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17">
@@ -15109,10 +15075,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17">
@@ -15120,21 +15086,21 @@
         <v>260</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17">
       <c r="A33" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17">
@@ -15145,7 +15111,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17">
@@ -15153,7 +15119,7 @@
         <v>263</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>29</v>
@@ -15164,10 +15130,10 @@
         <v>267</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17">
@@ -15178,7 +15144,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17">
@@ -15186,21 +15152,21 @@
         <v>270</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17">
       <c r="A39" s="12" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17">
@@ -15208,21 +15174,21 @@
         <v>272</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17">
       <c r="A41" s="12" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17">
@@ -15233,7 +15199,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17">
@@ -15244,7 +15210,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17">
@@ -15255,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17">
@@ -15263,10 +15229,10 @@
         <v>279</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17">
@@ -15277,7 +15243,7 @@
         <v>39</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17">
@@ -15288,7 +15254,7 @@
         <v>41</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17">
@@ -15296,15 +15262,15 @@
         <v>212</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17">
       <c r="A49" s="11" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>43</v>
@@ -15321,18 +15287,18 @@
         <v>285</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17">
       <c r="A51" s="11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17">
@@ -15343,7 +15309,7 @@
         <v>45</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17">
@@ -15351,15 +15317,15 @@
         <v>290</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17">
       <c r="A54" s="11" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>52</v>
@@ -15370,7 +15336,7 @@
     </row>
     <row r="55" spans="1:3" ht="17">
       <c r="A55" s="11" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>52</v>
@@ -15384,10 +15350,10 @@
         <v>292</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17">
@@ -15398,7 +15364,7 @@
         <v>47</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17">
@@ -15409,7 +15375,7 @@
         <v>49</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17">
@@ -15417,10 +15383,10 @@
         <v>296</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17">
@@ -15428,10 +15394,10 @@
         <v>298</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17">
@@ -15439,10 +15405,10 @@
         <v>300</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17">
@@ -15453,7 +15419,7 @@
         <v>50</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17">
@@ -15464,7 +15430,7 @@
         <v>54</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17">
@@ -15472,10 +15438,10 @@
         <v>306</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17">
@@ -15483,10 +15449,10 @@
         <v>308</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17">
@@ -15494,10 +15460,10 @@
         <v>310</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17">
@@ -15505,10 +15471,10 @@
         <v>312</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17">
@@ -15519,7 +15485,7 @@
         <v>56</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17">
@@ -15530,7 +15496,7 @@
         <v>58</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17">
@@ -15541,7 +15507,7 @@
         <v>60</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17">
@@ -15549,10 +15515,10 @@
         <v>61</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17">
@@ -15560,10 +15526,10 @@
         <v>317</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17">
@@ -15571,10 +15537,10 @@
         <v>319</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17">
@@ -15585,18 +15551,18 @@
         <v>63</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17">
       <c r="A75" s="12" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17">
@@ -15607,18 +15573,18 @@
         <v>65</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17">
@@ -15626,10 +15592,10 @@
         <v>323</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17">
@@ -15637,10 +15603,10 @@
         <v>325</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17">
@@ -15648,10 +15614,10 @@
         <v>327</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17">
@@ -15662,7 +15628,7 @@
         <v>67</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17">
@@ -15673,18 +15639,18 @@
         <v>69</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17">
       <c r="A83" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17">
@@ -15692,18 +15658,18 @@
         <v>330</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17">
       <c r="A85" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>69</v>
@@ -15714,10 +15680,10 @@
         <v>332</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17">
@@ -15725,10 +15691,10 @@
         <v>334</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17">
@@ -15736,10 +15702,10 @@
         <v>336</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17">
@@ -15750,7 +15716,7 @@
         <v>71</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17">
@@ -15761,7 +15727,7 @@
         <v>73</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17">
@@ -15772,7 +15738,7 @@
         <v>340</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17">
@@ -15780,10 +15746,10 @@
         <v>74</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17">
@@ -15791,10 +15757,10 @@
         <v>343</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17">
@@ -15802,21 +15768,21 @@
         <v>345</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17">
       <c r="A95" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17">
@@ -15824,10 +15790,10 @@
         <v>347</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17">
@@ -15838,7 +15804,7 @@
         <v>77</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17">
@@ -15846,10 +15812,10 @@
         <v>350</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17">
@@ -15857,10 +15823,10 @@
         <v>352</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17">
@@ -15868,10 +15834,10 @@
         <v>354</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17">
@@ -15879,10 +15845,10 @@
         <v>356</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17">
@@ -15893,18 +15859,18 @@
         <v>597</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17">
       <c r="A103" s="11" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17">
@@ -15915,7 +15881,7 @@
         <v>81</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17">
@@ -15923,10 +15889,10 @@
         <v>361</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17">
@@ -15934,10 +15900,10 @@
         <v>82</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17">
@@ -15948,7 +15914,7 @@
         <v>85</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17">
@@ -15959,7 +15925,7 @@
         <v>87</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17">
@@ -15970,18 +15936,18 @@
         <v>89</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17">
       <c r="A110" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17">
@@ -15992,18 +15958,18 @@
         <v>93</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17">
       <c r="A112" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17">
@@ -16011,10 +15977,10 @@
         <v>370</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17">
@@ -16022,10 +15988,10 @@
         <v>96</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17">
@@ -16036,18 +16002,18 @@
         <v>99</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17">
       <c r="A116" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17">
@@ -16058,18 +16024,18 @@
         <v>103</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17">
       <c r="A118" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17">
@@ -16088,10 +16054,10 @@
         <v>377</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17">
@@ -16102,7 +16068,7 @@
         <v>107</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17">
@@ -16110,10 +16076,10 @@
         <v>108</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17">
@@ -16124,7 +16090,7 @@
         <v>111</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17">
@@ -16132,32 +16098,32 @@
         <v>382</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17">
       <c r="A125" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>604</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17">
       <c r="A126" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>603</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17">
@@ -16165,10 +16131,10 @@
         <v>384</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17">
@@ -16176,10 +16142,10 @@
         <v>386</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17">
@@ -16187,21 +16153,21 @@
         <v>388</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17">
       <c r="A130" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17">
@@ -16209,10 +16175,10 @@
         <v>114</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17">
@@ -16231,10 +16197,10 @@
         <v>394</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="17">
@@ -16242,10 +16208,10 @@
         <v>396</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="17">
@@ -16256,7 +16222,7 @@
         <v>117</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="17">
@@ -16264,10 +16230,10 @@
         <v>399</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="17">
@@ -16278,7 +16244,7 @@
         <v>119</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="17">
@@ -16286,10 +16252,10 @@
         <v>402</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="17">
@@ -16297,10 +16263,10 @@
         <v>404</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="17">
@@ -16319,10 +16285,10 @@
         <v>409</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="17">
@@ -16333,7 +16299,7 @@
         <v>123</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="17">
@@ -16341,10 +16307,10 @@
         <v>412</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="17">
@@ -16352,10 +16318,10 @@
         <v>124</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="17">
@@ -16363,10 +16329,10 @@
         <v>415</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="17">
@@ -16374,21 +16340,21 @@
         <v>417</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="17">
       <c r="A147" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="17">
@@ -16399,7 +16365,7 @@
         <v>127</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="17">
@@ -16407,10 +16373,10 @@
         <v>420</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="17">
@@ -16418,10 +16384,10 @@
         <v>422</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="17">
@@ -16432,7 +16398,7 @@
         <v>129</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="17">
@@ -16440,10 +16406,10 @@
         <v>425</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="17">
@@ -16451,10 +16417,10 @@
         <v>427</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="17">
@@ -16462,10 +16428,10 @@
         <v>429</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="17">
@@ -16473,10 +16439,10 @@
         <v>431</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="17">
@@ -16484,10 +16450,10 @@
         <v>433</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="17">
@@ -16495,10 +16461,10 @@
         <v>435</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="17">
@@ -16509,7 +16475,7 @@
         <v>131</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="17">
@@ -16517,10 +16483,10 @@
         <v>438</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="17">
@@ -16528,10 +16494,10 @@
         <v>440</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="17">
@@ -16542,7 +16508,7 @@
         <v>133</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="17">
@@ -16550,10 +16516,10 @@
         <v>443</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="17">
@@ -16561,10 +16527,10 @@
         <v>445</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="17">
@@ -16572,10 +16538,10 @@
         <v>447</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="17">
@@ -16583,10 +16549,10 @@
         <v>451</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="17">
@@ -16597,7 +16563,7 @@
         <v>134</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="17">
@@ -16608,7 +16574,7 @@
         <v>136</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="17">
@@ -16619,7 +16585,7 @@
         <v>138</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="17">
@@ -16630,7 +16596,7 @@
         <v>140</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="17">
@@ -16638,21 +16604,21 @@
         <v>457</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="17">
       <c r="A171" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="17">
@@ -16660,21 +16626,21 @@
         <v>406</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="17">
       <c r="A173" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="17">
@@ -16682,10 +16648,10 @@
         <v>461</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="17">
@@ -16696,7 +16662,7 @@
         <v>142</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="17">
@@ -16707,7 +16673,7 @@
         <v>144</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="17">
@@ -16718,7 +16684,7 @@
         <v>146</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="17">
@@ -16726,10 +16692,10 @@
         <v>466</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="17">
@@ -16740,7 +16706,7 @@
         <v>593</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="17">
@@ -16751,7 +16717,7 @@
         <v>148</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="17">
@@ -16759,10 +16725,10 @@
         <v>471</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="17">
@@ -16773,7 +16739,7 @@
         <v>150</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="17">
@@ -16784,7 +16750,7 @@
         <v>152</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="17">
@@ -16792,10 +16758,10 @@
         <v>475</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="17">
@@ -16803,10 +16769,10 @@
         <v>477</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="17">
@@ -16817,7 +16783,7 @@
         <v>155</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="17">
@@ -16836,10 +16802,10 @@
         <v>480</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="17">
@@ -16847,10 +16813,10 @@
         <v>482</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="17">
@@ -16858,10 +16824,10 @@
         <v>485</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="17">
@@ -16872,18 +16838,18 @@
         <v>160</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="17">
       <c r="A192" s="12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B192" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="17">
@@ -16891,21 +16857,21 @@
         <v>488</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="17">
       <c r="A194" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="17">
@@ -16913,10 +16879,10 @@
         <v>490</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="17">
@@ -16924,10 +16890,10 @@
         <v>492</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="17">
@@ -16935,10 +16901,10 @@
         <v>494</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="17">
@@ -16946,10 +16912,10 @@
         <v>496</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="17">
@@ -16957,10 +16923,10 @@
         <v>498</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="30">
@@ -16968,10 +16934,10 @@
         <v>500</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="17">
@@ -16979,21 +16945,21 @@
         <v>502</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="17">
       <c r="A202" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="17">
@@ -17004,7 +16970,7 @@
         <v>609</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="17">
@@ -17012,10 +16978,10 @@
         <v>506</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="17">
@@ -17023,10 +16989,10 @@
         <v>508</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="17">
@@ -17037,7 +17003,7 @@
         <v>164</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="17">
@@ -17048,7 +17014,7 @@
         <v>166</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="17">
@@ -17070,7 +17036,7 @@
         <v>170</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="17">
@@ -17078,10 +17044,10 @@
         <v>513</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="17">
@@ -17089,10 +17055,10 @@
         <v>515</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="17">
@@ -17100,21 +17066,21 @@
         <v>171</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="17">
       <c r="A213" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="17">
@@ -17125,7 +17091,7 @@
         <v>518</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="17">
@@ -17136,7 +17102,7 @@
         <v>174</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="17">
@@ -17144,10 +17110,10 @@
         <v>521</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="17">
@@ -17155,10 +17121,10 @@
         <v>523</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="17">
@@ -17169,18 +17135,18 @@
         <v>596</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="17">
       <c r="A219" s="11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="17">
@@ -17191,29 +17157,29 @@
         <v>178</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="17">
       <c r="A221" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="17">
       <c r="A222" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="17">
@@ -17235,7 +17201,7 @@
         <v>180</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="17">
@@ -17246,7 +17212,7 @@
         <v>619</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="17">
@@ -17268,18 +17234,18 @@
         <v>618</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="17">
       <c r="A228" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="17">
@@ -17290,7 +17256,7 @@
         <v>184</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="17">
@@ -17306,13 +17272,13 @@
     </row>
     <row r="231" spans="1:3" ht="17">
       <c r="A231" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B231" s="11" t="s">
         <v>188</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -17320,10 +17286,10 @@
         <v>543</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="17">
@@ -17331,10 +17297,10 @@
         <v>545</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="17">
@@ -17345,7 +17311,7 @@
         <v>615</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="17">
@@ -17361,13 +17327,13 @@
     </row>
     <row r="236" spans="1:3" ht="17">
       <c r="A236" s="12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="17">
@@ -17386,10 +17352,10 @@
         <v>552</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="17">
@@ -17400,7 +17366,7 @@
         <v>613</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="17">
@@ -17408,10 +17374,10 @@
         <v>556</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="17">
@@ -17422,7 +17388,7 @@
         <v>192</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="17">
@@ -17433,7 +17399,7 @@
         <v>194</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="17">
@@ -17444,7 +17410,7 @@
         <v>196</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="17">
@@ -17452,10 +17418,10 @@
         <v>561</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="17">
@@ -17463,10 +17429,10 @@
         <v>563</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="17">
@@ -17477,7 +17443,7 @@
         <v>612</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="17">
@@ -17485,10 +17451,10 @@
         <v>197</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="17">
@@ -17496,32 +17462,32 @@
         <v>570</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="34">
       <c r="A249" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="17">
       <c r="A250" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="17">
@@ -17532,7 +17498,7 @@
         <v>202</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="17">
@@ -17540,10 +17506,10 @@
         <v>575</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="17">
@@ -17551,21 +17517,21 @@
         <v>577</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="17">
       <c r="A254" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B254" s="11" t="s">
         <v>579</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="17">
@@ -17576,7 +17542,7 @@
         <v>601</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="17">
@@ -17587,29 +17553,29 @@
         <v>204</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="17">
       <c r="A257" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="17">
       <c r="A258" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="17">
@@ -17620,7 +17586,7 @@
         <v>206</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="17">
@@ -17628,10 +17594,10 @@
         <v>583</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="17">
@@ -17639,10 +17605,10 @@
         <v>585</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="17">
@@ -17650,7 +17616,7 @@
         <v>587</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C262" s="11" t="s">
         <v>610</v>
@@ -17664,7 +17630,7 @@
         <v>208</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="17">
@@ -17675,7 +17641,7 @@
         <v>210</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
